--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="590">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -280,86 +280,6 @@
     <t xml:space="preserve">VALIDAZIONE</t>
   </si>
   <si>
-    <t xml:space="preserve">LDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:56:48Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc3edf6d32d9bb6e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.6814aea07e3a347263958d94caeaff827e89c4f602e512548ac343735556a696.ad5c680224^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:56:59Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1d526de7ba93306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.6444546dbf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9441d5dfa4014ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.2bb6337ced^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:02Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bb8c2d0cdf8e08c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.8161d460e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">CERT_VAC</t>
   </si>
   <si>
@@ -380,6 +300,15 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.4d5f43dd84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT2</t>
   </si>
   <si>
@@ -431,149 +360,7 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.b8a9132333^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">SING_VAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:09Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1f558a5934ae3e3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ed1efa8ea5c492600e05d5f2b6fbd33af3fac4915567af4768bc87bddc21dab3.fdda186302^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:10Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3189b460acf399ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.17f815801f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:12Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eaa4f951c426e69f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.7a0fc3c7c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:13Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29cf9c7fb7399a40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad748da03828f2a7a2e9028e3c8662e662b5682c7f518a42935e23f2aa885069.204ae9e8a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:14Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44f78e126737a572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.7b913a69cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:15Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff59a408f9ec2fdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.58bd710d9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:18Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d2545f154ee8bd55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.45205f6a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:19Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0bf51b16b0fff8a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.cc98b2805a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -626,51 +413,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:20Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b2951b5a64baf365</t>
+    <t xml:space="preserve">2023-03-31T13:57:22Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203a369fd401219c</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">/msg/jwt-validation
-Campo token JWT non valido.
-/jwt-mandatory-field-missing</t>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica delle condizioni di errore e correzione dell'anomalia.</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
   </si>
   <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:22Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203a369fd401219c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:23Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30e7b1bc0e121bc5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:24Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73574b2ab2ba8aca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -723,73 +484,375 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:25Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">865eab34959e9da7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/msg/jwt-validation
-Campo token JWT non valido.
-/jwt-mandatory-field-malformed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-03-31T13:57:26Z</t>
   </si>
   <si>
     <t xml:space="preserve">a6cd830c78ad488f</t>
   </si>
   <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:28Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfa622b9dd6bd4e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:29Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a45e7db361ed896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
+    <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-03-31T13:57:31Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il flusso produttivo del referto non viene interrotto. Il referto viene contrassegnato come non validato per FSE e processato successivamente ai fini della validazione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:49Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e021274427027165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.4eebd4a9b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 7. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:51Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe93fdc4e458c6fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.b1a3ca2276^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 8. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:52Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0d949b985f5b82ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.79b88b99be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 9. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:53Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4b3579ecaafe536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.bc79677e1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 10. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:54Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0b0bebce58b01846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.f380318f82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 11. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:56Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09f14e8a2458008e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.b25c277a72^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 1. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:57Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e369287ff9994d2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.468cc882e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 2. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b48a199bc46b9dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.e69e537e4f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 12. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:58:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72092bae38676fa9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.b18118e935^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 13. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:58:01Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02e2bd7c0a5e7b56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.267a0cc2ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 3. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:58:03Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afb5fa7a9d03927b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.058d4d7dfc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 4. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:58:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6c7db57b91953c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.18a16e8309^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 5. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:58:05Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5eab0d6a3e1ea096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.58861baac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 6. Contattare l'assistenza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:56:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc3edf6d32d9bb6e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.6814aea07e3a347263958d94caeaff827e89c4f602e512548ac343735556a696.ad5c680224^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:56:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1d526de7ba93306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.6444546dbf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9441d5dfa4014ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.2bb6337ced^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:02Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3bb8c2d0cdf8e08c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.8161d460e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:20Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2951b5a64baf365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:25Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">865eab34959e9da7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-03-31T13:57:30Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il flusso produttivo del referto non viene interrotto. Il referto viene contrassegnato come non validato per FSE e processato successivamente ai fini della validazione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:31Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_SING_VAC_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:33Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_VPS_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:34Z</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -809,9 +872,7 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.c6f71879c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">/msg/syntax
-Errore di sintassi.
-/validation/error</t>
+    <t xml:space="preserve">Viene inserito il valore di default e rigenerato il CDA</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -831,9 +892,10 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.f8801d2c51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">/msg/semantic
-Errore semantico.
-/validation/error</t>
+    <t xml:space="preserve">DATO OBBLIGATORIO MANCANTE O ERRATO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene segnalato all’operatore il dato mancante o errato prima di procedere a un nuovo tentativo</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
@@ -904,11 +966,6 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.c9aca1dcab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">/msg/vocabulary
-Errore vocabolario.
-/validation/error</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
   </si>
   <si>
@@ -960,6 +1017,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.4ae019d276^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene rigenerato il CDA omettendo la sezione opzionale</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT14_KO</t>
   </si>
   <si>
@@ -1002,228 +1062,105 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:49Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">14630b64e92e8a49</t>
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.aca95c382d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT5_KO</t>
+    <t xml:space="preserve">SING_VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT1</t>
   </si>
   <si>
     <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e021274427027165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.4eebd4a9b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:09Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1f558a5934ae3e3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ed1efa8ea5c492600e05d5f2b6fbd33af3fac4915567af4768bc87bddc21dab3.fdda186302^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT2</t>
   </si>
   <si>
     <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:51Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fe93fdc4e458c6fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.b1a3ca2276^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:52Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0d949b985f5b82ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.79b88b99be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:10Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3189b460acf399ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.17f815801f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT3</t>
   </si>
   <si>
     <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:53Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e4b3579ecaafe536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.bc79677e1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:12Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eaa4f951c426e69f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.7a0fc3c7c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT4</t>
   </si>
   <si>
     <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:54Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0b0bebce58b01846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.f380318f82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:56Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09f14e8a2458008e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.b25c277a72^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:57Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e369287ff9994d2e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.468cc882e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:59Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3b48a199bc46b9dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.e69e537e4f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:58:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72092bae38676fa9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.b18118e935^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:58:01Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02e2bd7c0a5e7b56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.267a0cc2ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:58:03Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afb5fa7a9d03927b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.058d4d7dfc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:58:04Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f6c7db57b91953c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.18a16e8309^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:58:05Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5eab0d6a3e1ea096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.58861baac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:13Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29cf9c7fb7399a40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad748da03828f2a7a2e9028e3c8662e662b5682c7f518a42935e23f2aa885069.204ae9e8a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:23Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30e7b1bc0e121bc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:28Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfa622b9dd6bd4e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_SING_VAC_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:33Z</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT5_KO</t>
@@ -1243,6 +1180,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ed1efa8ea5c492600e05d5f2b6fbd33af3fac4915567af4768bc87bddc21dab3.359a95fcd1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 22. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
   </si>
   <si>
@@ -1260,6 +1200,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ed1efa8ea5c492600e05d5f2b6fbd33af3fac4915567af4768bc87bddc21dab3.16884e1b02^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 23. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT7_KO</t>
   </si>
   <si>
@@ -1277,6 +1220,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ed1efa8ea5c492600e05d5f2b6fbd33af3fac4915567af4768bc87bddc21dab3.97873dab50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 24. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
   </si>
   <si>
@@ -1291,6 +1237,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad748da03828f2a7a2e9028e3c8662e662b5682c7f518a42935e23f2aa885069.966dd6af61^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si e' verificato l'errore 25. Contattare l'assistenza.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT9_KO</t>
@@ -1310,6 +1259,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad748da03828f2a7a2e9028e3c8662e662b5682c7f518a42935e23f2aa885069.39f58ab635^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 26. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT10_KO</t>
   </si>
   <si>
@@ -1327,6 +1279,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad748da03828f2a7a2e9028e3c8662e662b5682c7f518a42935e23f2aa885069.651d44622d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 14. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT11_KO</t>
   </si>
   <si>
@@ -1344,6 +1299,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.90c504a3de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 15. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT12_KO</t>
   </si>
   <si>
@@ -1361,6 +1319,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.dc4afabc3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 16. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT13_KO</t>
   </si>
   <si>
@@ -1378,6 +1339,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.85f3d7c1e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 17. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT14_KO</t>
   </si>
   <si>
@@ -1395,6 +1359,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.f40be1ddba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 18. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT15_KO</t>
   </si>
   <si>
@@ -1412,6 +1379,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.d4607b7066^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 19. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT16_KO</t>
   </si>
   <si>
@@ -1429,6 +1399,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.d714533daf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 20. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT17_KO</t>
   </si>
   <si>
@@ -1446,6 +1419,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.8e1296a388^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si e' verificato l'errore 21. Contattare l'assistenza.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT18_KO</t>
   </si>
   <si>
@@ -1480,6 +1456,104 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.0553ae0ab2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">VPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:14Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44f78e126737a572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.7b913a69cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:15Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff59a408f9ec2fdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.58bd710d9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:18Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2545f154ee8bd55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.45205f6a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:19Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0bf51b16b0fff8a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.cc98b2805a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:24Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73574b2ab2ba8aca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestione dell'anomalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:29Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a45e7db361ed896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_VPS_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:34Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT5_KO</t>
   </si>
   <si>
@@ -1496,6 +1570,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.3b6ebad33c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Referto non inviato a FSE in mancanza di questo dato</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT6_KO</t>
   </si>
   <si>
@@ -1512,6 +1589,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.f792b52ce4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Caso non verificabile in quanto i dati sono controllati in fase di inserimento alla fonte</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT7_KO</t>
   </si>
   <si>
@@ -1526,6 +1606,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.549b4855ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si chiede all'utente di compilare il dato mancante</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT8_KO</t>
@@ -1691,6 +1774,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.705a7eccba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il CDA viene generato omettendo la sezione facoltativa</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT18_KO</t>
   </si>
   <si>
@@ -1821,6 +1907,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.affce01a5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Correzione/aggiornamento della base dati da cui vengono presi i dati</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT26_KO</t>
   </si>
   <si>
@@ -2050,9 +2139,6 @@
   </si>
   <si>
     <t xml:space="preserve">FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2151,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2134,6 +2220,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2269,7 +2362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2355,15 +2448,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2406,6 +2499,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2427,37 +2528,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4472C4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2526,20 +2596,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="130.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3590,8 +3660,8 @@
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3600,7 +3670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3610,11 +3680,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="194.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="1" width="8.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4695,8 +4765,8 @@
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4705,19 +4775,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.88"/>
@@ -4725,13 +4793,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="104.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="1" width="36.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="31.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="21" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="21" style="1" width="8.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4902,7 +4970,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
         <v>27</v>
       </c>
@@ -4964,9 +5032,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>47</v>
@@ -5010,9 +5078,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>47</v>
@@ -5056,9 +5124,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>47</v>
@@ -5102,9 +5170,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>47</v>
@@ -5150,151 +5218,171 @@
     </row>
     <row r="14" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="33" t="s">
         <v>73</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="F14" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="I14" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>77</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="L14" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="O14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q14" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R14" s="30"/>
       <c r="S14" s="31"/>
       <c r="T14" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="L15" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="O15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q15" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R15" s="30"/>
       <c r="S15" s="31"/>
       <c r="T15" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="Q16" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>88</v>
@@ -5318,29 +5406,39 @@
         <v>54</v>
       </c>
       <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="L17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q17" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>94</v>
@@ -5364,345 +5462,425 @@
         <v>54</v>
       </c>
       <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="L18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="L19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="L20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="L21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q21" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="L22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="L23" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q23" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="L24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q24" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="L25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="Q25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>47</v>
@@ -5711,33 +5889,41 @@
         <v>48</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="L26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P26" s="29" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="29" t="s">
         <v>55</v>
@@ -5745,47 +5931,55 @@
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>136</v>
+        <v>148</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="L27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P27" s="29" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="29" t="s">
         <v>55</v>
@@ -5793,47 +5987,55 @@
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>136</v>
+        <v>154</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="L28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P28" s="29" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="29" t="s">
         <v>55</v>
@@ -5841,47 +6043,55 @@
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>136</v>
+        <v>160</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="F29" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="L29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P29" s="29" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="29" t="s">
         <v>55</v>
@@ -5889,36 +6099,36 @@
       <c r="R29" s="30"/>
       <c r="S29" s="31"/>
       <c r="T29" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="F30" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>54</v>
@@ -5928,45 +6138,43 @@
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="29" t="s">
-        <v>155</v>
-      </c>
+      <c r="P30" s="29"/>
       <c r="Q30" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
       <c r="T30" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>152</v>
+        <v>172</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="F31" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="J31" s="29" t="s">
         <v>54</v>
@@ -5976,45 +6184,43 @@
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
-      <c r="P31" s="29" t="s">
-        <v>155</v>
-      </c>
+      <c r="P31" s="29"/>
       <c r="Q31" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R31" s="30"/>
       <c r="S31" s="31"/>
       <c r="T31" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>152</v>
+        <v>177</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="F32" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>54</v>
@@ -6024,45 +6230,43 @@
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
-      <c r="P32" s="29" t="s">
-        <v>155</v>
-      </c>
+      <c r="P32" s="29"/>
       <c r="Q32" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
       <c r="T32" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>152</v>
+        <v>182</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="F33" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>54</v>
@@ -6072,52 +6276,60 @@
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
-      <c r="P33" s="29" t="s">
-        <v>155</v>
-      </c>
+      <c r="P33" s="29"/>
       <c r="Q33" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R33" s="30"/>
       <c r="S33" s="31"/>
       <c r="T33" s="32" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F34" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+        <v>188</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="J34" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
+      <c r="L34" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="O34" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P34" s="29" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="Q34" s="29" t="s">
         <v>55</v>
@@ -6125,43 +6337,53 @@
       <c r="R34" s="30"/>
       <c r="S34" s="31"/>
       <c r="T34" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>166</v>
+        <v>190</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="F35" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+        <v>191</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="J35" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
+      <c r="L35" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
+      <c r="O35" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P35" s="29" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="29" t="s">
         <v>55</v>
@@ -6169,30 +6391,30 @@
       <c r="R35" s="30"/>
       <c r="S35" s="31"/>
       <c r="T35" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="F36" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -6200,12 +6422,18 @@
         <v>54</v>
       </c>
       <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
+      <c r="L36" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
+      <c r="O36" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P36" s="29" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="Q36" s="29" t="s">
         <v>55</v>
@@ -6213,43 +6441,53 @@
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
       <c r="T36" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F37" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+        <v>197</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>199</v>
+      </c>
       <c r="J37" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="L37" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
+      <c r="O37" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P37" s="29" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="29" t="s">
         <v>55</v>
@@ -6257,47 +6495,55 @@
       <c r="R37" s="30"/>
       <c r="S37" s="31"/>
       <c r="T37" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F38" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="J38" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
+      <c r="L38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="P38" s="29" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="Q38" s="29" t="s">
         <v>55</v>
@@ -6305,47 +6551,53 @@
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
       <c r="T38" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="F39" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="J39" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
+      <c r="L39" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P39" s="29" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="Q39" s="29" t="s">
         <v>55</v>
@@ -6353,47 +6605,55 @@
       <c r="R39" s="30"/>
       <c r="S39" s="31"/>
       <c r="T39" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F40" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="J40" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
+      <c r="L40" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="P40" s="29" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q40" s="29" t="s">
         <v>55</v>
@@ -6401,47 +6661,55 @@
       <c r="R40" s="30"/>
       <c r="S40" s="31"/>
       <c r="T40" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F41" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J41" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
+      <c r="L41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="P41" s="29" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q41" s="29" t="s">
         <v>55</v>
@@ -6449,47 +6717,55 @@
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
       <c r="T41" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F42" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="J42" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
+      <c r="L42" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="P42" s="29" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q42" s="29" t="s">
         <v>55</v>
@@ -6497,45 +6773,53 @@
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
       <c r="T42" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="F43" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
+      <c r="L43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="P43" s="29" t="s">
         <v>207</v>
       </c>
@@ -6545,47 +6829,55 @@
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
       <c r="T43" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="F44" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J44" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
+      <c r="L44" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="P44" s="29" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q44" s="29" t="s">
         <v>55</v>
@@ -6593,47 +6885,53 @@
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
       <c r="T44" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="F45" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="J45" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
+      <c r="L45" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
+      <c r="O45" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P45" s="29" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="Q45" s="29" t="s">
         <v>55</v>
@@ -6641,47 +6939,53 @@
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
       <c r="T45" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="F46" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J46" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
+      <c r="L46" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
+      <c r="O46" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P46" s="29" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="Q46" s="29" t="s">
         <v>55</v>
@@ -6689,47 +6993,55 @@
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
       <c r="T46" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="F47" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
+      <c r="L47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="P47" s="29" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q47" s="29" t="s">
         <v>55</v>
@@ -6737,47 +7049,53 @@
       <c r="R47" s="30"/>
       <c r="S47" s="31"/>
       <c r="T47" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="F48" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J48" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
+      <c r="L48" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
+      <c r="O48" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="P48" s="29" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="Q48" s="29" t="s">
         <v>55</v>
@@ -6785,36 +7103,36 @@
       <c r="R48" s="30"/>
       <c r="S48" s="31"/>
       <c r="T48" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="n">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="F49" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="J49" s="29" t="s">
         <v>54</v>
@@ -6824,45 +7142,43 @@
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
       <c r="O49" s="29"/>
-      <c r="P49" s="29" t="s">
-        <v>207</v>
-      </c>
+      <c r="P49" s="29"/>
       <c r="Q49" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R49" s="30"/>
       <c r="S49" s="31"/>
       <c r="T49" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="n">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F50" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="J50" s="29" t="s">
         <v>54</v>
@@ -6872,45 +7188,43 @@
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
       <c r="O50" s="29"/>
-      <c r="P50" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="P50" s="29"/>
       <c r="Q50" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R50" s="30"/>
       <c r="S50" s="31"/>
       <c r="T50" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="n">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="F51" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="J51" s="29" t="s">
         <v>54</v>
@@ -6920,45 +7234,43 @@
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
-      <c r="P51" s="29" t="s">
-        <v>186</v>
-      </c>
+      <c r="P51" s="29"/>
       <c r="Q51" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R51" s="30"/>
       <c r="S51" s="31"/>
       <c r="T51" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="100.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F52" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J52" s="29" t="s">
         <v>54</v>
@@ -6968,56 +7280,60 @@
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
-      <c r="P52" s="29" t="s">
-        <v>186</v>
-      </c>
+      <c r="P52" s="29"/>
       <c r="Q52" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R52" s="30"/>
       <c r="S52" s="31"/>
       <c r="T52" s="32" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>253</v>
+        <v>279</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F53" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
+      <c r="L53" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
+      <c r="O53" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="P53" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q53" s="29" t="s">
         <v>55</v>
@@ -7025,47 +7341,53 @@
       <c r="R53" s="30"/>
       <c r="S53" s="31"/>
       <c r="T53" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>258</v>
+        <v>282</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="F54" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
+      <c r="L54" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
+      <c r="O54" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="P54" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q54" s="29" t="s">
         <v>55</v>
@@ -7073,47 +7395,49 @@
       <c r="R54" s="30"/>
       <c r="S54" s="31"/>
       <c r="T54" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="F55" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>266</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
+      <c r="L55" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
+      <c r="O55" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="P55" s="29" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="Q55" s="29" t="s">
         <v>55</v>
@@ -7121,47 +7445,55 @@
       <c r="R55" s="30"/>
       <c r="S55" s="31"/>
       <c r="T55" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="F56" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="J56" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
+      <c r="L56" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P56" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q56" s="29" t="s">
         <v>55</v>
@@ -7169,47 +7501,55 @@
       <c r="R56" s="30"/>
       <c r="S56" s="31"/>
       <c r="T56" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="F57" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
+      <c r="L57" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M57" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N57" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="O57" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P57" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q57" s="29" t="s">
         <v>55</v>
@@ -7217,47 +7557,55 @@
       <c r="R57" s="30"/>
       <c r="S57" s="31"/>
       <c r="T57" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="F58" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="J58" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
+      <c r="L58" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P58" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q58" s="29" t="s">
         <v>55</v>
@@ -7265,47 +7613,55 @@
       <c r="R58" s="30"/>
       <c r="S58" s="31"/>
       <c r="T58" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="F59" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="J59" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
+      <c r="L59" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="O59" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P59" s="29" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Q59" s="29" t="s">
         <v>55</v>
@@ -7313,47 +7669,55 @@
       <c r="R59" s="30"/>
       <c r="S59" s="31"/>
       <c r="T59" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="F60" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="J60" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
+      <c r="L60" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M60" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N60" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="O60" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P60" s="29" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Q60" s="29" t="s">
         <v>55</v>
@@ -7361,47 +7725,55 @@
       <c r="R60" s="30"/>
       <c r="S60" s="31"/>
       <c r="T60" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="F61" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="J61" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
+      <c r="L61" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="O61" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P61" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q61" s="29" t="s">
         <v>55</v>
@@ -7409,47 +7781,55 @@
       <c r="R61" s="30"/>
       <c r="S61" s="31"/>
       <c r="T61" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F62" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J62" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
+      <c r="L62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="O62" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P62" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q62" s="29" t="s">
         <v>55</v>
@@ -7457,47 +7837,55 @@
       <c r="R62" s="30"/>
       <c r="S62" s="31"/>
       <c r="T62" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="F63" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="J63" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
+      <c r="L63" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="O63" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P63" s="29" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="Q63" s="29" t="s">
         <v>55</v>
@@ -7505,47 +7893,55 @@
       <c r="R63" s="30"/>
       <c r="S63" s="31"/>
       <c r="T63" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="F64" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="J64" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
+      <c r="L64" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="O64" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P64" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q64" s="29" t="s">
         <v>55</v>
@@ -7553,47 +7949,55 @@
       <c r="R64" s="30"/>
       <c r="S64" s="31"/>
       <c r="T64" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="F65" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
+      <c r="L65" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="O65" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P65" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q65" s="29" t="s">
         <v>55</v>
@@ -7601,47 +8005,55 @@
       <c r="R65" s="30"/>
       <c r="S65" s="31"/>
       <c r="T65" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="F66" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
+      <c r="L66" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="O66" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P66" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q66" s="29" t="s">
         <v>55</v>
@@ -7649,47 +8061,55 @@
       <c r="R66" s="30"/>
       <c r="S66" s="31"/>
       <c r="T66" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="F67" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="J67" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
+      <c r="L67" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="O67" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P67" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q67" s="29" t="s">
         <v>55</v>
@@ -7697,47 +8117,55 @@
       <c r="R67" s="30"/>
       <c r="S67" s="31"/>
       <c r="T67" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="F68" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="J68" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
+      <c r="L68" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="O68" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P68" s="29" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Q68" s="29" t="s">
         <v>55</v>
@@ -7745,47 +8173,55 @@
       <c r="R68" s="30"/>
       <c r="S68" s="31"/>
       <c r="T68" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="24" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="F69" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="J69" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
+      <c r="L69" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M69" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O69" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P69" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q69" s="29" t="s">
         <v>55</v>
@@ -7793,47 +8229,55 @@
       <c r="R69" s="30"/>
       <c r="S69" s="31"/>
       <c r="T69" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="24" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="F70" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J70" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
+      <c r="L70" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="P70" s="29" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q70" s="29" t="s">
         <v>55</v>
@@ -7841,239 +8285,237 @@
       <c r="R70" s="30"/>
       <c r="S70" s="31"/>
       <c r="T70" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="24" t="n">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="F71" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="J71" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29" t="s">
-        <v>186</v>
-      </c>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
       <c r="Q71" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R71" s="30"/>
       <c r="S71" s="31"/>
       <c r="T71" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="24" t="n">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="F72" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="J72" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29" t="s">
-        <v>186</v>
-      </c>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
       <c r="Q72" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R72" s="30"/>
       <c r="S72" s="31"/>
       <c r="T72" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24" t="n">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="F73" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="J73" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29" t="s">
-        <v>207</v>
-      </c>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
       <c r="Q73" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R73" s="30"/>
       <c r="S73" s="31"/>
       <c r="T73" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="24" t="n">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="F74" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="J74" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29" t="s">
-        <v>207</v>
-      </c>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
       <c r="Q74" s="29" t="s">
         <v>55</v>
       </c>
       <c r="R74" s="30"/>
       <c r="S74" s="31"/>
       <c r="T74" s="32" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="24" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B75" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>363</v>
+        <v>396</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F75" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="J75" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29" t="s">
-        <v>186</v>
+      <c r="L75" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M75" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P75" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q75" s="29" t="s">
         <v>55</v>
@@ -8081,47 +8523,53 @@
       <c r="R75" s="30"/>
       <c r="S75" s="31"/>
       <c r="T75" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="24" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>368</v>
+        <v>400</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="F76" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="J76" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29" t="s">
-        <v>186</v>
+      <c r="L76" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M76" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P76" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q76" s="29" t="s">
         <v>55</v>
@@ -8129,47 +8577,49 @@
       <c r="R76" s="30"/>
       <c r="S76" s="31"/>
       <c r="T76" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="24" t="n">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="F77" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>376</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
       <c r="J77" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29" t="s">
-        <v>207</v>
+      <c r="L77" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P77" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q77" s="29" t="s">
         <v>55</v>
@@ -8177,7 +8627,7 @@
       <c r="R77" s="30"/>
       <c r="S77" s="31"/>
       <c r="T77" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8188,36 +8638,42 @@
         <v>47</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="F78" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="J78" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29" t="s">
-        <v>180</v>
+      <c r="L78" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M78" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" s="35" t="s">
+        <v>410</v>
       </c>
       <c r="Q78" s="29" t="s">
         <v>55</v>
@@ -8225,7 +8681,7 @@
       <c r="R78" s="30"/>
       <c r="S78" s="31"/>
       <c r="T78" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8236,36 +8692,42 @@
         <v>47</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="F79" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="J79" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29" t="s">
-        <v>186</v>
+      <c r="L79" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M79" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P79" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="Q79" s="29" t="s">
         <v>55</v>
@@ -8273,7 +8735,7 @@
       <c r="R79" s="30"/>
       <c r="S79" s="31"/>
       <c r="T79" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8284,36 +8746,44 @@
         <v>47</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="F80" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="J80" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29" t="s">
-        <v>186</v>
+      <c r="L80" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M80" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N80" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O80" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P80" s="35" t="s">
+        <v>410</v>
       </c>
       <c r="Q80" s="29" t="s">
         <v>55</v>
@@ -8321,7 +8791,7 @@
       <c r="R80" s="30"/>
       <c r="S80" s="31"/>
       <c r="T80" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8332,36 +8802,42 @@
         <v>47</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="F81" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="J81" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29" t="s">
-        <v>186</v>
+      <c r="L81" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M81" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P81" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="Q81" s="29" t="s">
         <v>55</v>
@@ -8369,7 +8845,7 @@
       <c r="R81" s="30"/>
       <c r="S81" s="31"/>
       <c r="T81" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8380,36 +8856,42 @@
         <v>47</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="F82" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="J82" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29" t="s">
-        <v>186</v>
+      <c r="L82" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M82" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P82" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="Q82" s="29" t="s">
         <v>55</v>
@@ -8417,7 +8899,7 @@
       <c r="R82" s="30"/>
       <c r="S82" s="31"/>
       <c r="T82" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8428,36 +8910,42 @@
         <v>47</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="F83" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="J83" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29" t="s">
-        <v>207</v>
+      <c r="L83" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M83" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="Q83" s="29" t="s">
         <v>55</v>
@@ -8465,7 +8953,7 @@
       <c r="R83" s="30"/>
       <c r="S83" s="31"/>
       <c r="T83" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8476,36 +8964,44 @@
         <v>47</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="F84" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="J84" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29" t="s">
-        <v>180</v>
+      <c r="L84" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M84" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N84" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O84" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q84" s="29" t="s">
         <v>55</v>
@@ -8513,7 +9009,7 @@
       <c r="R84" s="30"/>
       <c r="S84" s="31"/>
       <c r="T84" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8524,36 +9020,42 @@
         <v>47</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="F85" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="J85" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29" t="s">
-        <v>180</v>
+      <c r="L85" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M85" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P85" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="Q85" s="29" t="s">
         <v>55</v>
@@ -8561,7 +9063,7 @@
       <c r="R85" s="30"/>
       <c r="S85" s="31"/>
       <c r="T85" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8572,36 +9074,44 @@
         <v>47</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="F86" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="J86" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29" t="s">
-        <v>186</v>
+      <c r="L86" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M86" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N86" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O86" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P86" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q86" s="29" t="s">
         <v>55</v>
@@ -8609,7 +9119,7 @@
       <c r="R86" s="30"/>
       <c r="S86" s="31"/>
       <c r="T86" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8620,36 +9130,44 @@
         <v>47</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="F87" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="H87" s="28" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="J87" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29" t="s">
-        <v>186</v>
+      <c r="L87" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M87" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N87" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O87" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P87" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q87" s="29" t="s">
         <v>55</v>
@@ -8657,7 +9175,7 @@
       <c r="R87" s="30"/>
       <c r="S87" s="31"/>
       <c r="T87" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8668,36 +9186,44 @@
         <v>47</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="F88" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="J88" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29" t="s">
-        <v>186</v>
+      <c r="L88" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M88" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N88" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O88" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P88" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q88" s="29" t="s">
         <v>55</v>
@@ -8705,7 +9231,7 @@
       <c r="R88" s="30"/>
       <c r="S88" s="31"/>
       <c r="T88" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8716,36 +9242,44 @@
         <v>47</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="F89" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="J89" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="29" t="s">
-        <v>186</v>
+      <c r="L89" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M89" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N89" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O89" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P89" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q89" s="29" t="s">
         <v>55</v>
@@ -8753,7 +9287,7 @@
       <c r="R89" s="30"/>
       <c r="S89" s="31"/>
       <c r="T89" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8764,36 +9298,42 @@
         <v>47</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="F90" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="J90" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29" t="s">
-        <v>186</v>
+      <c r="L90" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M90" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P90" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="Q90" s="29" t="s">
         <v>55</v>
@@ -8801,7 +9341,7 @@
       <c r="R90" s="30"/>
       <c r="S90" s="31"/>
       <c r="T90" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8812,36 +9352,42 @@
         <v>47</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="F91" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="J91" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29" t="s">
-        <v>186</v>
+      <c r="L91" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M91" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P91" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="Q91" s="29" t="s">
         <v>55</v>
@@ -8849,7 +9395,7 @@
       <c r="R91" s="30"/>
       <c r="S91" s="31"/>
       <c r="T91" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8860,36 +9406,42 @@
         <v>47</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="F92" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="J92" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29" t="s">
-        <v>186</v>
+      <c r="L92" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M92" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P92" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="Q92" s="29" t="s">
         <v>55</v>
@@ -8897,7 +9449,7 @@
       <c r="R92" s="30"/>
       <c r="S92" s="31"/>
       <c r="T92" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8908,36 +9460,44 @@
         <v>47</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="F93" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="J93" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29" t="s">
-        <v>186</v>
+      <c r="L93" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M93" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N93" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O93" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P93" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q93" s="29" t="s">
         <v>55</v>
@@ -8945,7 +9505,7 @@
       <c r="R93" s="30"/>
       <c r="S93" s="31"/>
       <c r="T93" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8956,36 +9516,42 @@
         <v>47</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="F94" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="H94" s="28" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="J94" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29" t="s">
-        <v>186</v>
+      <c r="L94" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M94" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P94" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="Q94" s="29" t="s">
         <v>55</v>
@@ -8993,7 +9559,7 @@
       <c r="R94" s="30"/>
       <c r="S94" s="31"/>
       <c r="T94" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9004,36 +9570,44 @@
         <v>47</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="F95" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="H95" s="28" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="J95" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29" t="s">
-        <v>186</v>
+      <c r="L95" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M95" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N95" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O95" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P95" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q95" s="29" t="s">
         <v>55</v>
@@ -9041,7 +9615,7 @@
       <c r="R95" s="30"/>
       <c r="S95" s="31"/>
       <c r="T95" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9052,36 +9626,44 @@
         <v>47</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="F96" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="J96" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29" t="s">
-        <v>186</v>
+      <c r="L96" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M96" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N96" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="O96" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P96" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="Q96" s="29" t="s">
         <v>55</v>
@@ -9089,7 +9671,7 @@
       <c r="R96" s="30"/>
       <c r="S96" s="31"/>
       <c r="T96" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9100,36 +9682,42 @@
         <v>47</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="F97" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="H97" s="28" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="J97" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="29" t="s">
-        <v>186</v>
+      <c r="L97" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M97" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P97" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="Q97" s="29" t="s">
         <v>55</v>
@@ -9137,7 +9725,7 @@
       <c r="R97" s="30"/>
       <c r="S97" s="31"/>
       <c r="T97" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9148,36 +9736,42 @@
         <v>47</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="F98" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="J98" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29" t="s">
-        <v>207</v>
+      <c r="L98" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M98" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P98" s="35" t="s">
+        <v>514</v>
       </c>
       <c r="Q98" s="29" t="s">
         <v>55</v>
@@ -9185,7 +9779,7 @@
       <c r="R98" s="30"/>
       <c r="S98" s="31"/>
       <c r="T98" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9196,36 +9790,42 @@
         <v>47</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="F99" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="J99" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29" t="s">
-        <v>207</v>
+      <c r="L99" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M99" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P99" s="35" t="s">
+        <v>514</v>
       </c>
       <c r="Q99" s="29" t="s">
         <v>55</v>
@@ -9233,7 +9833,7 @@
       <c r="R99" s="30"/>
       <c r="S99" s="31"/>
       <c r="T99" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9244,36 +9844,42 @@
         <v>47</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="F100" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="J100" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29" t="s">
-        <v>207</v>
+      <c r="L100" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M100" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P100" s="35" t="s">
+        <v>514</v>
       </c>
       <c r="Q100" s="29" t="s">
         <v>55</v>
@@ -9281,7 +9887,7 @@
       <c r="R100" s="30"/>
       <c r="S100" s="31"/>
       <c r="T100" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9292,36 +9898,42 @@
         <v>47</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="F101" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="J101" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29" t="s">
-        <v>207</v>
+      <c r="L101" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M101" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P101" s="35" t="s">
+        <v>514</v>
       </c>
       <c r="Q101" s="29" t="s">
         <v>55</v>
@@ -9329,7 +9941,7 @@
       <c r="R101" s="30"/>
       <c r="S101" s="31"/>
       <c r="T101" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9340,36 +9952,42 @@
         <v>47</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="F102" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="J102" s="29" t="s">
         <v>54</v>
       </c>
       <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="29" t="s">
-        <v>186</v>
+      <c r="L102" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M102" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P102" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="Q102" s="29" t="s">
         <v>55</v>
@@ -9377,7 +9995,7 @@
       <c r="R102" s="30"/>
       <c r="S102" s="31"/>
       <c r="T102" s="32" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19249,7 +19867,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T102"/>
+  <autoFilter ref="A9:T102">
+    <filterColumn colId="19">
+      <customFilters and="true">
+        <customFilter operator="equal" val="KO"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -19259,9 +19883,19 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L71:M102 O71:O102 P78:P83 N81 N85 P85" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P84 P86:P89 P93 P95:P96" type="list">
+      <formula1>Sheet1!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19272,7 +19906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -19284,15 +19918,15 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="1" width="8.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19303,695 +19937,695 @@
         <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>507</v>
+        <v>538</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>512</v>
+        <v>538</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>514</v>
+        <v>538</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>515</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>516</v>
+        <v>538</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>517</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>518</v>
+        <v>538</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>520</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>521</v>
+        <v>538</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>523</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>524</v>
+        <v>538</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" s="34" t="n">
+        <v>538</v>
+      </c>
+      <c r="C10" s="36" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>526</v>
+      <c r="D10" s="36" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C11" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>528</v>
+      <c r="D11" s="36" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C12" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>529</v>
+      <c r="D12" s="36" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C13" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>530</v>
+      <c r="D13" s="37" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C14" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>531</v>
+      <c r="D14" s="36" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C15" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>532</v>
+      <c r="D15" s="37" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C16" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>533</v>
+      <c r="D16" s="37" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C17" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>534</v>
+      <c r="D17" s="37" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C18" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>535</v>
+      <c r="D18" s="37" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C19" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>537</v>
+      <c r="D19" s="36" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>538</v>
+      <c r="D20" s="36" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C21" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>539</v>
+      <c r="D21" s="37" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C22" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>540</v>
+      <c r="D22" s="36" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C23" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>541</v>
+      <c r="D23" s="37" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C24" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>542</v>
+      <c r="D24" s="37" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C25" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>543</v>
+      <c r="D25" s="37" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C26" s="34" t="n">
+        <v>569</v>
+      </c>
+      <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>544</v>
+      <c r="D26" s="37" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C27" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>546</v>
+      <c r="D27" s="36" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C28" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>547</v>
+      <c r="D28" s="36" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C29" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>548</v>
+      <c r="D29" s="38" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C30" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>549</v>
+      <c r="D30" s="36" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C31" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>550</v>
+      <c r="D31" s="37" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C32" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>551</v>
+      <c r="D32" s="37" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C33" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>552</v>
+      <c r="D33" s="37" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C34" s="34" t="n">
+        <v>578</v>
+      </c>
+      <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>553</v>
+      <c r="D34" s="37" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C35" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C35" s="36" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="34" t="n">
+      <c r="D35" s="36" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C36" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C36" s="36" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="34" t="n">
+      <c r="D36" s="36" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C37" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C37" s="36" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="35" t="n">
+      <c r="D37" s="37" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C38" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C38" s="36" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="34" t="n">
+      <c r="D38" s="36" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C39" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C39" s="36" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="35" t="n">
+      <c r="D39" s="37" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C40" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C40" s="36" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="35" t="n">
+      <c r="D40" s="37" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C41" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C41" s="36" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="35" t="n">
+      <c r="D41" s="37" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C42" s="34" t="n">
+        <v>587</v>
+      </c>
+      <c r="C42" s="36" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="35" t="n">
+      <c r="D42" s="37" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C43" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C43" s="36" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="34" t="n">
+      <c r="D43" s="36" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C44" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C44" s="36" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="34" t="n">
+      <c r="D44" s="36" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C45" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C45" s="36" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="35" t="n">
+      <c r="D45" s="37" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C46" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C46" s="36" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="34" t="n">
+      <c r="D46" s="36" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C47" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C47" s="36" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="35" t="n">
+      <c r="D47" s="37" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C48" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C48" s="36" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="35" t="n">
+      <c r="D48" s="37" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C49" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C49" s="36" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="35" t="n">
+      <c r="D49" s="37" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C50" s="34" t="n">
+        <v>588</v>
+      </c>
+      <c r="C50" s="36" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="35" t="n">
+      <c r="D50" s="37" t="n">
         <v>319</v>
       </c>
     </row>
@@ -20944,8 +21578,8 @@
     <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -20954,7 +21588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -20964,11 +21598,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="1" width="8.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20989,10 +21623,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>557</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -21994,8 +22628,8 @@
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="591">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -280,6 +280,89 @@
     <t xml:space="preserve">VALIDAZIONE</t>
   </si>
   <si>
+    <t xml:space="preserve">LDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:39Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3c77469499ebac16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.6814aea07e3a347263958d94caeaff827e89c4f602e512548ac343735556a696.d5cbd9adc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:40Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5e3e57e496ae0dae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.566b8c7ffa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:42Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497df16f6ecd9753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.e497fcb07e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:43Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a807e9f63f69ec0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.903644497d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">CERT_VAC</t>
   </si>
   <si>
@@ -291,22 +374,13 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:03Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00db3c16763f6f2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.4d5f43dd84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
+    <t xml:space="preserve">2023-04-12T08:14:44Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1df21bcf80cbf4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.e1463ec52d9676c60f8aee57a7cba6ac477879bd8220d9d12bf1170eb315b396.efec9fd90b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT2</t>
@@ -317,13 +391,13 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:05Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c2a4e98cf4d14e1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.c1ab1630bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-04-12T08:14:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16c7157702c911c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.1ad0039841^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT3</t>
@@ -334,13 +408,13 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:06Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8052cbcd4657b7a9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.ab47c4f084^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-04-12T08:14:47Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dca913cb7110f3a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.848f2faf96eba524827aa661be5d6ff07755407c420b321684d5296d768c9526.e4f622bf91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT4</t>
@@ -351,16 +425,158 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:07Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0e2c36c8cc63df8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.b8a9132333^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
+    <t xml:space="preserve">2023-04-12T08:14:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74e8c78fa6f9d24e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.386643a673^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SING_VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:49Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93e66a760455f251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ed1efa8ea5c492600e05d5f2b6fbd33af3fac4915567af4768bc87bddc21dab3.33964ef346^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:50Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9b7b470c4b44551b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.137ed448fb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:52Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1351ad97066acb00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.61a66b0580^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:53Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1abaeab50c133c30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad748da03828f2a7a2e9028e3c8662e662b5682c7f518a42935e23f2aa885069.f4915ae4a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:54Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d0e3247da857614d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.d68bbc13fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:55Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4cb7c7c86d64f6dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.b6fc7c3ac6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:14:56Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">905ee37bd4d30d42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.de2320e9da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12T08:15:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">861a0169a68ff43e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.daadc545a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
     <r>
@@ -413,25 +629,46 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">2023-03-31T13:57:20Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2951b5a64baf365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il flusso produttivo del referto non viene interrotto. Il referto viene contrassegnato come non validato per FSE e processato successivamente ai fini della validazione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-03-31T13:57:22Z</t>
   </si>
   <si>
     <t xml:space="preserve">203a369fd401219c</t>
   </si>
   <si>
-    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verifica delle condizioni di errore e correzione dell'anomalia.</t>
   </si>
   <si>
-    <t xml:space="preserve">KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:23Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30e7b1bc0e121bc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
   </si>
   <si>
     <r>
@@ -484,23 +721,266 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">2023-03-31T13:57:25Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">865eab34959e9da7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-03-31T13:57:26Z</t>
   </si>
   <si>
     <t xml:space="preserve">a6cd830c78ad488f</t>
   </si>
   <si>
-    <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:28Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfa622b9dd6bd4e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-03-31T13:57:30Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-03-31T13:57:31Z</t>
   </si>
   <si>
-    <t xml:space="preserve">Il flusso produttivo del referto non viene interrotto. Il referto viene contrassegnato come non validato per FSE e processato successivamente ai fini della validazione.</t>
+    <t xml:space="preserve">VALIDAZIONE_SING_VAC_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:33Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:35Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7e6cbd5bcdfa5fb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.c6f71879c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene inserito il valore di default e rigenerato il CDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d9ce9e679e2eb9e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.f8801d2c51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATO OBBLIGATORIO MANCANTE O ERRATO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene segnalato all’operatore il dato mancante o errato prima di procedere a un nuovo tentativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:38Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7180353bf4f4827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.869eba2807^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:39Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f446f20b9595d84d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.a3a291ac74^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:40Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19cb74c49b521922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.5da285982a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:41Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4e1accf5d3f5931d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.c9aca1dcab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:42Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86a1959afa7de049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.75528c1c17^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:44Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7d91a92c2fbbd0b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.ac911a2ec3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdcbb2a950511dbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.4ae019d276^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene rigenerato il CDA omettendo la sezione opzionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397066e0d174f176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.3490498257^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:47Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">836b2ee04a91505e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.b25e3c6074^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-31T13:57:49Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14630b64e92e8a49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.aca95c382d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT5_KO</t>
@@ -511,9 +991,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-31T13:57:49Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">e021274427027165</t>
   </si>
   <si>
@@ -760,409 +1237,6 @@
     <t xml:space="preserve">Si e' verificato l'errore 6. Contattare l'assistenza.</t>
   </si>
   <si>
-    <t xml:space="preserve">LDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:56:48Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc3edf6d32d9bb6e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.6814aea07e3a347263958d94caeaff827e89c4f602e512548ac343735556a696.ad5c680224^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:56:59Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1d526de7ba93306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.6444546dbf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9441d5dfa4014ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.2bb6337ced^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:02Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bb8c2d0cdf8e08c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.8161d460e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:20Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b2951b5a64baf365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:25Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">865eab34959e9da7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:30Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:35Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7e6cbd5bcdfa5fb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.c6f71879c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene inserito il valore di default e rigenerato il CDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:36Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d9ce9e679e2eb9e9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.f8801d2c51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATO OBBLIGATORIO MANCANTE O ERRATO!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene segnalato all’operatore il dato mancante o errato prima di procedere a un nuovo tentativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:38Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b7180353bf4f4827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.869eba2807^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:39Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f446f20b9595d84d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.a3a291ac74^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:40Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19cb74c49b521922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.5da285982a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:41Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4e1accf5d3f5931d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.c9aca1dcab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:42Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86a1959afa7de049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.75528c1c17^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:44Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7d91a92c2fbbd0b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.ac911a2ec3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:45Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdcbb2a950511dbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.4ae019d276^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene rigenerato il CDA omettendo la sezione opzionale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT14_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:46Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397066e0d174f176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.3490498257^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:47Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">836b2ee04a91505e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.b25e3c6074^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14630b64e92e8a49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad9a19cf6c3e3e401951eb24d3c2d265027be72aa925be01473b1413443f90fc.aca95c382d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SING_VAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:09Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1f558a5934ae3e3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ed1efa8ea5c492600e05d5f2b6fbd33af3fac4915567af4768bc87bddc21dab3.fdda186302^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:10Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3189b460acf399ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.17f815801f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:12Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eaa4f951c426e69f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.7a0fc3c7c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:13Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29cf9c7fb7399a40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.ad748da03828f2a7a2e9028e3c8662e662b5682c7f518a42935e23f2aa885069.204ae9e8a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:23Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30e7b1bc0e121bc5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:28Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bfa622b9dd6bd4e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_SING_VAC_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:33Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT5_KO</t>
   </si>
   <si>
@@ -1454,77 +1528,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.0553ae0ab2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:14Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44f78e126737a572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.7b913a69cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:15Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff59a408f9ec2fdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.58bd710d9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:18Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d2545f154ee8bd55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.45205f6a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-31T13:57:19Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0bf51b16b0fff8a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.cc98b2805a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
@@ -2471,7 +2474,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2495,15 +2498,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2606,7 +2609,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="130.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.87"/>
@@ -3680,7 +3683,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="194.11"/>
@@ -4776,16 +4779,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.88"/>
@@ -5032,9 +5035,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>47</v>
@@ -5048,20 +5051,20 @@
       <c r="E10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="27" t="n">
-        <v>45016</v>
+      <c r="F10" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -5070,17 +5073,17 @@
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" s="30"/>
       <c r="S10" s="31"/>
       <c r="T10" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>47</v>
@@ -5089,25 +5092,25 @@
         <v>48</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="27" t="n">
-        <v>45016</v>
+        <v>59</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -5116,17 +5119,17 @@
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" s="30"/>
       <c r="S11" s="31"/>
       <c r="T11" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>47</v>
@@ -5135,25 +5138,25 @@
         <v>48</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="27" t="n">
-        <v>45016</v>
+        <v>64</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -5162,17 +5165,17 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" s="30"/>
       <c r="S12" s="31"/>
       <c r="T12" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>47</v>
@@ -5181,25 +5184,25 @@
         <v>48</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="27" t="n">
-        <v>45016</v>
+        <v>69</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -5208,131 +5211,115 @@
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R13" s="30"/>
       <c r="S13" s="31"/>
       <c r="T13" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="27" t="n">
-        <v>45016</v>
+        <v>74</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R14" s="30"/>
       <c r="S14" s="31"/>
       <c r="T14" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="F15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="27" t="n">
-        <v>45016</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="I15" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="28" t="s">
-        <v>76</v>
-      </c>
       <c r="J15" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="29"/>
-      <c r="L15" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R15" s="30"/>
       <c r="S15" s="31"/>
       <c r="T15" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>84</v>
@@ -5340,161 +5327,137 @@
       <c r="E16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="27" t="n">
-        <v>45016</v>
+      <c r="F16" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="J16" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" s="29"/>
-      <c r="L16" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="29" t="s">
-        <v>87</v>
-      </c>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="27" t="n">
-        <v>45016</v>
+        <v>90</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="29"/>
-      <c r="L17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="27" t="n">
-        <v>45016</v>
+        <v>96</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="29"/>
-      <c r="L18" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
       <c r="Q18" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>100</v>
@@ -5502,8 +5465,8 @@
       <c r="E19" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="27" t="n">
-        <v>45016</v>
+      <c r="F19" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>102</v>
@@ -5515,372 +5478,302 @@
         <v>104</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="F20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="27" t="n">
-        <v>45016</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="I20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="J20" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" s="29"/>
-      <c r="L20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="H21" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="27" t="n">
-        <v>45016</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="I21" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>116</v>
-      </c>
       <c r="J21" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="29"/>
-      <c r="L21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="H22" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="27" t="n">
-        <v>45016</v>
-      </c>
-      <c r="G22" s="28" t="s">
+      <c r="I22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>122</v>
-      </c>
       <c r="J22" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="29"/>
-      <c r="L22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="I23" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="27" t="n">
-        <v>45016</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>128</v>
-      </c>
       <c r="J23" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23" s="29"/>
-      <c r="L23" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N23" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D24" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="27" t="n">
-        <v>45016</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>134</v>
-      </c>
       <c r="J24" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24" s="29"/>
-      <c r="L24" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
       <c r="Q24" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="27" t="n">
-        <v>45016</v>
+        <v>132</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25" s="29"/>
-      <c r="L25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="O25" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" s="29" t="s">
-        <v>78</v>
-      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>47</v>
@@ -5889,166 +5782,160 @@
         <v>48</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>77</v>
+        <v>141</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="29"/>
-      <c r="L27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>77</v>
+      <c r="L27" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" s="29"/>
-      <c r="L28" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="O28" s="34" t="s">
-        <v>77</v>
+      <c r="L28" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>47</v>
@@ -6057,2292 +5944,2378 @@
         <v>48</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>161</v>
+        <v>151</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="F29" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O29" s="34" t="s">
-        <v>77</v>
+        <v>141</v>
+      </c>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R29" s="30"/>
       <c r="S29" s="31"/>
       <c r="T29" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>168</v>
+        <v>155</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="F30" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="L30" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="35" t="s">
+        <v>141</v>
+      </c>
       <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q30" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
       <c r="T30" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>173</v>
+        <v>158</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="F31" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="L31" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>141</v>
+      </c>
       <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="O31" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q31" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R31" s="30"/>
       <c r="S31" s="31"/>
       <c r="T31" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F32" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>181</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="L32" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="O32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="Q32" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
       <c r="T32" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="144" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F33" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>186</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="L33" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>141</v>
+      </c>
       <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="O33" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="Q33" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R33" s="30"/>
       <c r="S33" s="31"/>
       <c r="T33" s="32" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>73</v>
+      <c r="E34" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="F34" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>76</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34" s="29"/>
-      <c r="L34" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" s="29" t="s">
-        <v>77</v>
+      <c r="L34" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M34" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="N34" s="29"/>
-      <c r="O34" s="29" t="s">
-        <v>54</v>
+      <c r="O34" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R34" s="30"/>
       <c r="S34" s="31"/>
       <c r="T34" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>81</v>
+        <v>168</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="F35" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="M35" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="N35" s="29"/>
       <c r="O35" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R35" s="30"/>
       <c r="S35" s="31"/>
       <c r="T35" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="F36" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+        <v>176</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>178</v>
+      </c>
       <c r="J36" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N36" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>179</v>
+      </c>
       <c r="O36" s="29" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
       <c r="T36" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F37" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="M37" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" s="30"/>
       <c r="S37" s="31"/>
       <c r="T37" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F38" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="29"/>
       <c r="L38" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N38" s="29" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="O38" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P38" s="29" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="Q38" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
       <c r="T38" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F39" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M39" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N39" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>179</v>
+      </c>
       <c r="O39" s="29" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="P39" s="29" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="Q39" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" s="30"/>
       <c r="S39" s="31"/>
       <c r="T39" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F40" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N40" s="29" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="Q40" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R40" s="30"/>
       <c r="S40" s="31"/>
       <c r="T40" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F41" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" s="29"/>
       <c r="L41" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N41" s="29" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
       <c r="T41" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F42" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42" s="29"/>
       <c r="L42" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="O42" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P42" s="29" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="Q42" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
       <c r="T42" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F43" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="29" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="29" t="s">
-        <v>206</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N43" s="29"/>
       <c r="O43" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q43" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
       <c r="T43" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F44" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="M44" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N44" s="29" t="s">
-        <v>206</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N44" s="29"/>
       <c r="O44" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
       <c r="T44" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F45" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="29"/>
       <c r="L45" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M45" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N45" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>179</v>
+      </c>
       <c r="O45" s="29" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="Q45" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
       <c r="T45" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F46" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="N46" s="29"/>
       <c r="O46" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P46" s="29" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="Q46" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
       <c r="T46" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F47" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="O47" s="29" t="s">
-        <v>77</v>
+        <v>236</v>
+      </c>
+      <c r="O47" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="Q47" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R47" s="30"/>
       <c r="S47" s="31"/>
       <c r="T47" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F48" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="J48" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O48" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="Q48" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R48" s="30"/>
       <c r="S48" s="31"/>
       <c r="T48" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F49" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
+      <c r="L49" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q49" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R49" s="30"/>
       <c r="S49" s="31"/>
       <c r="T49" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F50" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
+      <c r="L50" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O50" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q50" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R50" s="30"/>
       <c r="S50" s="31"/>
       <c r="T50" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="129" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F51" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="J51" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
+      <c r="L51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O51" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q51" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R51" s="30"/>
       <c r="S51" s="31"/>
       <c r="T51" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="100.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="n">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F52" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="J52" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
+      <c r="L52" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O52" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q52" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R52" s="30"/>
       <c r="S52" s="31"/>
       <c r="T52" s="32" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>73</v>
+        <v>267</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="F53" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53" s="29"/>
-      <c r="L53" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M53" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N53" s="29"/>
-      <c r="O53" s="34" t="s">
-        <v>54</v>
+      <c r="L53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O53" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P53" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q53" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R53" s="30"/>
       <c r="S53" s="31"/>
       <c r="T53" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="n">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>81</v>
+        <v>273</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>274</v>
       </c>
       <c r="F54" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54" s="29"/>
-      <c r="L54" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M54" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N54" s="29"/>
-      <c r="O54" s="34" t="s">
-        <v>54</v>
+      <c r="L54" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O54" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q54" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R54" s="30"/>
       <c r="S54" s="31"/>
       <c r="T54" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="n">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="F55" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+        <v>281</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>283</v>
+      </c>
       <c r="J55" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K55" s="29"/>
-      <c r="L55" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M55" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N55" s="29"/>
-      <c r="O55" s="34" t="s">
-        <v>54</v>
+      <c r="L55" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O55" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="Q55" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R55" s="30"/>
       <c r="S55" s="31"/>
       <c r="T55" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F56" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G56" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="I56" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="J56" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N56" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="I56" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="J56" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N56" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="O56" s="34" t="s">
-        <v>77</v>
+      <c r="O56" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q56" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R56" s="30"/>
       <c r="S56" s="31"/>
       <c r="T56" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F57" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G57" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="I57" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="J57" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N57" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="I57" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="J57" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M57" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N57" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="O57" s="34" t="s">
-        <v>77</v>
+      <c r="O57" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P57" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q57" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R57" s="30"/>
       <c r="S57" s="31"/>
       <c r="T57" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F58" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G58" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="I58" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="J58" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N58" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="I58" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J58" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58" s="29"/>
-      <c r="L58" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N58" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="O58" s="34" t="s">
-        <v>77</v>
+      <c r="O58" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P58" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q58" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R58" s="30"/>
       <c r="S58" s="31"/>
       <c r="T58" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F59" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G59" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="J59" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N59" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="I59" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="J59" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M59" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N59" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="O59" s="34" t="s">
-        <v>77</v>
+      <c r="O59" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P59" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q59" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R59" s="30"/>
       <c r="S59" s="31"/>
       <c r="T59" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F60" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G60" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="I60" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="J60" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" s="29"/>
+      <c r="L60" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N60" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="I60" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="J60" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60" s="29"/>
-      <c r="L60" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M60" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N60" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="O60" s="34" t="s">
-        <v>77</v>
+      <c r="O60" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P60" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q60" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R60" s="30"/>
       <c r="S60" s="31"/>
       <c r="T60" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F61" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G61" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="J61" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K61" s="29"/>
+      <c r="L61" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M61" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N61" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="I61" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="J61" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M61" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N61" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="O61" s="34" t="s">
-        <v>77</v>
+      <c r="O61" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q61" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R61" s="30"/>
       <c r="S61" s="31"/>
       <c r="T61" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F62" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G62" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="I62" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="J62" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" s="29"/>
+      <c r="L62" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M62" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N62" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="I62" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="J62" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M62" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="O62" s="34" t="s">
-        <v>77</v>
+      <c r="O62" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P62" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q62" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R62" s="30"/>
       <c r="S62" s="31"/>
       <c r="T62" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F63" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G63" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="J63" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" s="29"/>
+      <c r="L63" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M63" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N63" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="I63" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="J63" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M63" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N63" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="O63" s="34" t="s">
-        <v>77</v>
+      <c r="O63" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P63" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q63" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R63" s="30"/>
       <c r="S63" s="31"/>
       <c r="T63" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F64" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G64" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="I64" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="J64" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K64" s="29"/>
+      <c r="L64" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M64" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N64" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="I64" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="J64" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M64" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N64" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="O64" s="34" t="s">
-        <v>77</v>
+      <c r="O64" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P64" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q64" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R64" s="30"/>
       <c r="S64" s="31"/>
       <c r="T64" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F65" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G65" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="I65" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="H65" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>345</v>
-      </c>
       <c r="J65" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K65" s="29"/>
       <c r="L65" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M65" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="O65" s="34" t="s">
-        <v>77</v>
+        <v>344</v>
+      </c>
+      <c r="O65" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q65" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R65" s="30"/>
       <c r="S65" s="31"/>
       <c r="T65" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F66" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G66" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="I66" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="H66" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>351</v>
-      </c>
       <c r="J66" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K66" s="29"/>
       <c r="L66" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M66" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="O66" s="34" t="s">
-        <v>77</v>
+        <v>350</v>
+      </c>
+      <c r="O66" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P66" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q66" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R66" s="30"/>
       <c r="S66" s="31"/>
       <c r="T66" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F67" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G67" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="I67" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="H67" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>357</v>
-      </c>
       <c r="J67" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K67" s="29"/>
       <c r="L67" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M67" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N67" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="O67" s="34" t="s">
-        <v>77</v>
+        <v>356</v>
+      </c>
+      <c r="O67" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P67" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q67" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R67" s="30"/>
       <c r="S67" s="31"/>
       <c r="T67" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F68" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G68" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="I68" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="H68" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>363</v>
-      </c>
       <c r="J68" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K68" s="29"/>
       <c r="L68" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M68" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N68" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="O68" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="N68" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O68" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q68" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R68" s="30"/>
       <c r="S68" s="31"/>
       <c r="T68" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="24" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F69" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G69" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="I69" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="J69" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N69" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="I69" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="J69" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K69" s="29"/>
-      <c r="L69" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M69" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N69" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="O69" s="34" t="s">
-        <v>77</v>
+      <c r="O69" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P69" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q69" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R69" s="30"/>
       <c r="S69" s="31"/>
       <c r="T69" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="24" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="D70" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" s="26" t="s">
         <v>370</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>371</v>
       </c>
       <c r="F70" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G70" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="I70" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="I70" s="28" t="s">
+      <c r="J70" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="J70" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K70" s="29"/>
-      <c r="L70" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="M70" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N70" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="O70" s="34" t="s">
-        <v>77</v>
+      <c r="O70" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="P70" s="29" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Q70" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R70" s="30"/>
       <c r="S70" s="31"/>
       <c r="T70" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="24" t="n">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="E71" s="26" t="s">
         <v>376</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>377</v>
       </c>
       <c r="F71" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G71" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="H71" s="28" t="s">
+      <c r="I71" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="I71" s="28" t="s">
+      <c r="J71" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N71" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="J71" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K71" s="29"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
+      <c r="O71" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q71" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R71" s="30"/>
       <c r="S71" s="31"/>
       <c r="T71" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="24" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>381</v>
@@ -8363,113 +8336,143 @@
         <v>385</v>
       </c>
       <c r="J72" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72" s="29"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
+      <c r="L72" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N72" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="O72" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q72" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R72" s="30"/>
       <c r="S72" s="31"/>
       <c r="T72" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F73" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J73" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73" s="29"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="L73" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M73" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N73" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O73" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q73" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R73" s="30"/>
       <c r="S73" s="31"/>
       <c r="T73" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="114.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="24" t="n">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F74" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J74" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74" s="29"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
+      <c r="L74" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M74" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N74" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="O74" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="Q74" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R74" s="30"/>
       <c r="S74" s="31"/>
       <c r="T74" s="32" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8480,50 +8483,50 @@
         <v>47</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>73</v>
+        <v>397</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="F75" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="J75" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K75" s="29"/>
-      <c r="L75" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M75" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P75" s="35" t="s">
-        <v>399</v>
+      <c r="L75" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M75" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P75" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q75" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R75" s="30"/>
       <c r="S75" s="31"/>
       <c r="T75" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8534,50 +8537,50 @@
         <v>47</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>81</v>
+        <v>401</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="F76" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="J76" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76" s="29"/>
-      <c r="L76" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M76" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P76" s="35" t="s">
-        <v>399</v>
+      <c r="L76" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M76" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P76" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q76" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R76" s="30"/>
       <c r="S76" s="31"/>
       <c r="T76" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8588,46 +8591,46 @@
         <v>47</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="F77" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
       <c r="J77" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77" s="29"/>
-      <c r="L77" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M77" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P77" s="35" t="s">
-        <v>399</v>
+      <c r="L77" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M77" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P77" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q77" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R77" s="30"/>
       <c r="S77" s="31"/>
       <c r="T77" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8638,50 +8641,50 @@
         <v>47</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F78" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J78" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78" s="29"/>
-      <c r="L78" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M78" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P78" s="35" t="s">
-        <v>410</v>
+      <c r="L78" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M78" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P78" s="33" t="s">
+        <v>411</v>
       </c>
       <c r="Q78" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R78" s="30"/>
       <c r="S78" s="31"/>
       <c r="T78" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8692,50 +8695,50 @@
         <v>47</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F79" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J79" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K79" s="29"/>
-      <c r="L79" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M79" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P79" s="35" t="s">
-        <v>416</v>
+      <c r="L79" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M79" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P79" s="33" t="s">
+        <v>417</v>
       </c>
       <c r="Q79" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R79" s="30"/>
       <c r="S79" s="31"/>
       <c r="T79" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8746,52 +8749,52 @@
         <v>47</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F80" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J80" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K80" s="29"/>
-      <c r="L80" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M80" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N80" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O80" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P80" s="35" t="s">
-        <v>410</v>
+      <c r="L80" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M80" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N80" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O80" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P80" s="33" t="s">
+        <v>411</v>
       </c>
       <c r="Q80" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R80" s="30"/>
       <c r="S80" s="31"/>
       <c r="T80" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8802,50 +8805,50 @@
         <v>47</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F81" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J81" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81" s="29"/>
-      <c r="L81" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M81" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P81" s="35" t="s">
-        <v>416</v>
+      <c r="L81" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M81" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P81" s="33" t="s">
+        <v>417</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R81" s="30"/>
       <c r="S81" s="31"/>
       <c r="T81" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8856,50 +8859,50 @@
         <v>47</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F82" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J82" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K82" s="29"/>
-      <c r="L82" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M82" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P82" s="35" t="s">
-        <v>416</v>
+      <c r="L82" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M82" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P82" s="33" t="s">
+        <v>417</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R82" s="30"/>
       <c r="S82" s="31"/>
       <c r="T82" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8910,50 +8913,50 @@
         <v>47</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F83" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J83" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83" s="29"/>
-      <c r="L83" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M83" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P83" s="35" t="s">
-        <v>416</v>
+      <c r="L83" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M83" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P83" s="33" t="s">
+        <v>417</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R83" s="30"/>
       <c r="S83" s="31"/>
       <c r="T83" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8964,52 +8967,52 @@
         <v>47</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F84" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J84" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K84" s="29"/>
-      <c r="L84" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M84" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N84" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O84" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P84" s="35" t="s">
-        <v>399</v>
+      <c r="L84" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M84" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N84" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O84" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P84" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R84" s="30"/>
       <c r="S84" s="31"/>
       <c r="T84" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9020,50 +9023,50 @@
         <v>47</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F85" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J85" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K85" s="29"/>
-      <c r="L85" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M85" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P85" s="35" t="s">
-        <v>416</v>
+      <c r="L85" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M85" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P85" s="33" t="s">
+        <v>417</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R85" s="30"/>
       <c r="S85" s="31"/>
       <c r="T85" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9074,52 +9077,52 @@
         <v>47</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F86" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K86" s="29"/>
-      <c r="L86" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M86" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N86" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O86" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P86" s="35" t="s">
-        <v>399</v>
+      <c r="L86" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M86" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N86" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O86" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P86" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R86" s="30"/>
       <c r="S86" s="31"/>
       <c r="T86" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9130,52 +9133,52 @@
         <v>47</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F87" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H87" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J87" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87" s="29"/>
-      <c r="L87" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M87" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N87" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O87" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P87" s="35" t="s">
-        <v>399</v>
+      <c r="L87" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M87" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N87" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O87" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P87" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R87" s="30"/>
       <c r="S87" s="31"/>
       <c r="T87" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9186,52 +9189,52 @@
         <v>47</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F88" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J88" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K88" s="29"/>
-      <c r="L88" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M88" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N88" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O88" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P88" s="35" t="s">
-        <v>399</v>
+      <c r="L88" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M88" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N88" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O88" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P88" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R88" s="30"/>
       <c r="S88" s="31"/>
       <c r="T88" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9242,52 +9245,52 @@
         <v>47</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F89" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89" s="29"/>
-      <c r="L89" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M89" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N89" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O89" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P89" s="35" t="s">
-        <v>399</v>
+      <c r="L89" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M89" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N89" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O89" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P89" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R89" s="30"/>
       <c r="S89" s="31"/>
       <c r="T89" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9298,50 +9301,50 @@
         <v>47</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F90" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K90" s="29"/>
-      <c r="L90" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M90" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P90" s="35" t="s">
-        <v>473</v>
+      <c r="L90" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M90" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P90" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R90" s="30"/>
       <c r="S90" s="31"/>
       <c r="T90" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9352,50 +9355,50 @@
         <v>47</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F91" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J91" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K91" s="29"/>
-      <c r="L91" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M91" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P91" s="35" t="s">
-        <v>473</v>
+      <c r="L91" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M91" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P91" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R91" s="30"/>
       <c r="S91" s="31"/>
       <c r="T91" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9406,50 +9409,50 @@
         <v>47</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F92" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J92" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K92" s="29"/>
-      <c r="L92" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M92" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P92" s="35" t="s">
-        <v>473</v>
+      <c r="L92" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M92" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P92" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R92" s="30"/>
       <c r="S92" s="31"/>
       <c r="T92" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9460,52 +9463,52 @@
         <v>47</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F93" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J93" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93" s="29"/>
-      <c r="L93" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M93" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N93" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O93" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P93" s="35" t="s">
-        <v>399</v>
+      <c r="L93" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M93" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N93" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O93" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P93" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q93" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R93" s="30"/>
       <c r="S93" s="31"/>
       <c r="T93" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9516,50 +9519,50 @@
         <v>47</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F94" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H94" s="28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J94" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K94" s="29"/>
-      <c r="L94" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M94" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P94" s="35" t="s">
-        <v>473</v>
+      <c r="L94" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M94" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P94" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R94" s="30"/>
       <c r="S94" s="31"/>
       <c r="T94" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9570,52 +9573,52 @@
         <v>47</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F95" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H95" s="28" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J95" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K95" s="29"/>
-      <c r="L95" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M95" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N95" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O95" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P95" s="35" t="s">
-        <v>399</v>
+      <c r="L95" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M95" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N95" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O95" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P95" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R95" s="30"/>
       <c r="S95" s="31"/>
       <c r="T95" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9626,52 +9629,52 @@
         <v>47</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F96" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J96" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96" s="29"/>
-      <c r="L96" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M96" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N96" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="O96" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P96" s="35" t="s">
-        <v>399</v>
+      <c r="L96" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M96" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N96" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="O96" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P96" s="33" t="s">
+        <v>400</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R96" s="30"/>
       <c r="S96" s="31"/>
       <c r="T96" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9682,50 +9685,50 @@
         <v>47</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F97" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H97" s="28" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J97" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97" s="29"/>
-      <c r="L97" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M97" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P97" s="35" t="s">
-        <v>473</v>
+      <c r="L97" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M97" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P97" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R97" s="30"/>
       <c r="S97" s="31"/>
       <c r="T97" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9736,50 +9739,50 @@
         <v>47</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F98" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J98" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K98" s="29"/>
-      <c r="L98" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M98" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P98" s="35" t="s">
-        <v>514</v>
+      <c r="L98" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M98" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P98" s="33" t="s">
+        <v>515</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R98" s="30"/>
       <c r="S98" s="31"/>
       <c r="T98" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9790,50 +9793,50 @@
         <v>47</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F99" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J99" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K99" s="29"/>
-      <c r="L99" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M99" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P99" s="35" t="s">
-        <v>514</v>
+      <c r="L99" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M99" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P99" s="33" t="s">
+        <v>515</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R99" s="30"/>
       <c r="S99" s="31"/>
       <c r="T99" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9844,50 +9847,50 @@
         <v>47</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F100" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J100" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100" s="29"/>
-      <c r="L100" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M100" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P100" s="35" t="s">
-        <v>514</v>
+      <c r="L100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P100" s="33" t="s">
+        <v>515</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R100" s="30"/>
       <c r="S100" s="31"/>
       <c r="T100" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9898,50 +9901,50 @@
         <v>47</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F101" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J101" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101" s="29"/>
-      <c r="L101" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M101" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P101" s="35" t="s">
-        <v>514</v>
+      <c r="L101" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M101" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P101" s="33" t="s">
+        <v>515</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R101" s="30"/>
       <c r="S101" s="31"/>
       <c r="T101" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9952,50 +9955,50 @@
         <v>47</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F102" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J102" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K102" s="29"/>
-      <c r="L102" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M102" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N102" s="35"/>
-      <c r="O102" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P102" s="35" t="s">
-        <v>473</v>
+      <c r="L102" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M102" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P102" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R102" s="30"/>
       <c r="S102" s="31"/>
       <c r="T102" s="32" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19867,13 +19870,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T102">
-    <filterColumn colId="19">
-      <customFilters and="true">
-        <customFilter operator="equal" val="KO"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T102"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -19884,7 +19881,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L71:M102 O71:O102 P78:P83 N81 N85 P85" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L22:M25 O22:O25 L75:M102 O75:O102 P78:P83 N81 N85 P85" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -19918,7 +19915,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
@@ -19937,480 +19934,480 @@
         <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C10" s="36" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C35" s="36" t="n">
         <v>195</v>
@@ -20421,10 +20418,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C36" s="36" t="n">
         <v>211</v>
@@ -20435,10 +20432,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C37" s="36" t="n">
         <v>227</v>
@@ -20449,10 +20446,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C38" s="36" t="n">
         <v>243</v>
@@ -20463,10 +20460,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C39" s="36" t="n">
         <v>259</v>
@@ -20477,10 +20474,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C40" s="36" t="n">
         <v>275</v>
@@ -20491,10 +20488,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C41" s="36" t="n">
         <v>291</v>
@@ -20505,10 +20502,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C42" s="36" t="n">
         <v>307</v>
@@ -20519,10 +20516,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C43" s="36" t="n">
         <v>196</v>
@@ -20533,10 +20530,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C44" s="36" t="n">
         <v>212</v>
@@ -20547,10 +20544,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C45" s="36" t="n">
         <v>228</v>
@@ -20561,10 +20558,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C46" s="36" t="n">
         <v>244</v>
@@ -20575,10 +20572,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C47" s="36" t="n">
         <v>260</v>
@@ -20589,10 +20586,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C48" s="36" t="n">
         <v>276</v>
@@ -20603,10 +20600,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C49" s="36" t="n">
         <v>292</v>
@@ -20617,10 +20614,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C50" s="36" t="n">
         <v>308</v>
@@ -21598,7 +21595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
@@ -21615,18 +21612,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -550,13 +550,13 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-12T08:14:56Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">905ee37bd4d30d42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.de2320e9da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-04-12T13:19:10Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312cf7073ebc45d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.5bbcc8edd7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
@@ -567,13 +567,13 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-12T08:15:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">861a0169a68ff43e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.daadc545a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-04-12T13:19:11Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2827a430c1c8e8f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.7671c98086^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -2609,7 +2609,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="130.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.87"/>
@@ -3683,7 +3683,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="194.11"/>
@@ -4788,7 +4788,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.88"/>
@@ -19915,7 +19915,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
@@ -21595,7 +21595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>

--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="592">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -425,13 +425,16 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-12T08:14:48Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74e8c78fa6f9d24e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.386643a673^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">17/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-17T15:13:21Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ad754b0faa7265b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.04f0d20517a1f29794ceeda8d9a868d810697107f0c1875f304523a4038e529a.96f28c9ea8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SING_VAC</t>
@@ -479,13 +482,13 @@
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-12T08:14:52Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1351ad97066acb00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.61a66b0580^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-04-17T15:13:22Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb2c572ef03f09c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.7253dcbc1e185fdb3d31b92107e8ecedc747c932ea1a928115098d76f0326e27.846c0b84f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_SING_VAC_CT4</t>
@@ -2609,7 +2612,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="130.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.87"/>
@@ -3683,7 +3686,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="194.11"/>
@@ -4784,11 +4787,11 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.88"/>
@@ -5374,16 +5377,16 @@
         <v>90</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>55</v>
@@ -5411,25 +5414,25 @@
         <v>47</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>55</v>
@@ -5457,25 +5460,25 @@
         <v>47</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>55</v>
@@ -5503,25 +5506,25 @@
         <v>47</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>55</v>
@@ -5549,25 +5552,25 @@
         <v>47</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>55</v>
@@ -5595,25 +5598,25 @@
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>55</v>
@@ -5641,25 +5644,25 @@
         <v>47</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>55</v>
@@ -5687,25 +5690,25 @@
         <v>47</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>55</v>
@@ -5733,25 +5736,25 @@
         <v>47</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>55</v>
@@ -5782,39 +5785,39 @@
         <v>48</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N26" s="29"/>
       <c r="O26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="29" t="s">
         <v>56</v>
@@ -5822,7 +5825,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5836,39 +5839,39 @@
         <v>73</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N27" s="29"/>
       <c r="O27" s="35" t="s">
         <v>55</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27" s="29" t="s">
         <v>56</v>
@@ -5876,7 +5879,7 @@
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5887,42 +5890,42 @@
         <v>47</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N28" s="29"/>
       <c r="O28" s="35" t="s">
         <v>55</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="29" t="s">
         <v>56</v>
@@ -5930,7 +5933,7 @@
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5944,39 +5947,39 @@
         <v>48</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N29" s="29"/>
       <c r="O29" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="29" t="s">
         <v>56</v>
@@ -5984,7 +5987,7 @@
       <c r="R29" s="30"/>
       <c r="S29" s="31"/>
       <c r="T29" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5998,39 +6001,39 @@
         <v>73</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J30" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N30" s="29"/>
       <c r="O30" s="35" t="s">
         <v>55</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30" s="29" t="s">
         <v>56</v>
@@ -6038,7 +6041,7 @@
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
       <c r="T30" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6049,42 +6052,42 @@
         <v>47</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F31" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J31" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N31" s="29"/>
       <c r="O31" s="35" t="s">
         <v>55</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="29" t="s">
         <v>56</v>
@@ -6092,7 +6095,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="31"/>
       <c r="T31" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6106,16 +6109,16 @@
         <v>48</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F32" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -6124,17 +6127,17 @@
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N32" s="29"/>
       <c r="O32" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="29" t="s">
         <v>56</v>
@@ -6142,7 +6145,7 @@
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
       <c r="T32" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6156,16 +6159,16 @@
         <v>73</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F33" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -6174,17 +6177,17 @@
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N33" s="29"/>
       <c r="O33" s="35" t="s">
         <v>55</v>
       </c>
       <c r="P33" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q33" s="29" t="s">
         <v>56</v>
@@ -6192,7 +6195,7 @@
       <c r="R33" s="30"/>
       <c r="S33" s="31"/>
       <c r="T33" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6203,19 +6206,19 @@
         <v>47</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F34" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -6224,17 +6227,17 @@
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N34" s="29"/>
       <c r="O34" s="35" t="s">
         <v>55</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34" s="29" t="s">
         <v>56</v>
@@ -6242,7 +6245,7 @@
       <c r="R34" s="30"/>
       <c r="S34" s="31"/>
       <c r="T34" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6256,39 +6259,39 @@
         <v>48</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F35" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M35" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N35" s="29"/>
       <c r="O35" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35" s="29" t="s">
         <v>56</v>
@@ -6296,7 +6299,7 @@
       <c r="R35" s="30"/>
       <c r="S35" s="31"/>
       <c r="T35" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6310,22 +6313,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F36" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J36" s="29" t="s">
         <v>55</v>
@@ -6338,13 +6341,13 @@
         <v>55</v>
       </c>
       <c r="N36" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O36" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="29" t="s">
         <v>56</v>
@@ -6352,7 +6355,7 @@
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
       <c r="T36" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6366,39 +6369,39 @@
         <v>48</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F37" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J37" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M37" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q37" s="29" t="s">
         <v>56</v>
@@ -6406,7 +6409,7 @@
       <c r="R37" s="30"/>
       <c r="S37" s="31"/>
       <c r="T37" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6420,22 +6423,22 @@
         <v>48</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F38" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J38" s="29" t="s">
         <v>55</v>
@@ -6448,13 +6451,13 @@
         <v>55</v>
       </c>
       <c r="N38" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O38" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P38" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q38" s="29" t="s">
         <v>56</v>
@@ -6462,7 +6465,7 @@
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
       <c r="T38" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6476,22 +6479,22 @@
         <v>48</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F39" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J39" s="29" t="s">
         <v>55</v>
@@ -6504,13 +6507,13 @@
         <v>55</v>
       </c>
       <c r="N39" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O39" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P39" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q39" s="29" t="s">
         <v>56</v>
@@ -6518,7 +6521,7 @@
       <c r="R39" s="30"/>
       <c r="S39" s="31"/>
       <c r="T39" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6532,22 +6535,22 @@
         <v>48</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F40" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J40" s="29" t="s">
         <v>55</v>
@@ -6560,13 +6563,13 @@
         <v>55</v>
       </c>
       <c r="N40" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q40" s="29" t="s">
         <v>56</v>
@@ -6574,7 +6577,7 @@
       <c r="R40" s="30"/>
       <c r="S40" s="31"/>
       <c r="T40" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6588,22 +6591,22 @@
         <v>48</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F41" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J41" s="29" t="s">
         <v>55</v>
@@ -6616,13 +6619,13 @@
         <v>55</v>
       </c>
       <c r="N41" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41" s="29" t="s">
         <v>56</v>
@@ -6630,7 +6633,7 @@
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
       <c r="T41" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6644,22 +6647,22 @@
         <v>48</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F42" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J42" s="29" t="s">
         <v>55</v>
@@ -6672,13 +6675,13 @@
         <v>55</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O42" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P42" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42" s="29" t="s">
         <v>56</v>
@@ -6686,7 +6689,7 @@
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
       <c r="T42" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6700,39 +6703,39 @@
         <v>48</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F43" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N43" s="29"/>
       <c r="O43" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43" s="29" t="s">
         <v>56</v>
@@ -6740,7 +6743,7 @@
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
       <c r="T43" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6754,39 +6757,39 @@
         <v>48</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F44" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J44" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M44" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44" s="29" t="s">
         <v>56</v>
@@ -6794,7 +6797,7 @@
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
       <c r="T44" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6808,22 +6811,22 @@
         <v>48</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F45" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J45" s="29" t="s">
         <v>55</v>
@@ -6836,13 +6839,13 @@
         <v>55</v>
       </c>
       <c r="N45" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O45" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q45" s="29" t="s">
         <v>56</v>
@@ -6850,7 +6853,7 @@
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
       <c r="T45" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6864,39 +6867,39 @@
         <v>48</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F46" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J46" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N46" s="29"/>
       <c r="O46" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P46" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46" s="29" t="s">
         <v>56</v>
@@ -6904,7 +6907,7 @@
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
       <c r="T46" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6918,22 +6921,22 @@
         <v>73</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F47" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>55</v>
@@ -6946,13 +6949,13 @@
         <v>55</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q47" s="29" t="s">
         <v>56</v>
@@ -6960,7 +6963,7 @@
       <c r="R47" s="30"/>
       <c r="S47" s="31"/>
       <c r="T47" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6974,22 +6977,22 @@
         <v>73</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F48" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J48" s="29" t="s">
         <v>55</v>
@@ -7002,13 +7005,13 @@
         <v>55</v>
       </c>
       <c r="N48" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q48" s="29" t="s">
         <v>56</v>
@@ -7016,7 +7019,7 @@
       <c r="R48" s="30"/>
       <c r="S48" s="31"/>
       <c r="T48" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7030,22 +7033,22 @@
         <v>73</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F49" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J49" s="29" t="s">
         <v>55</v>
@@ -7058,13 +7061,13 @@
         <v>55</v>
       </c>
       <c r="N49" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P49" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q49" s="29" t="s">
         <v>56</v>
@@ -7072,7 +7075,7 @@
       <c r="R49" s="30"/>
       <c r="S49" s="31"/>
       <c r="T49" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7086,22 +7089,22 @@
         <v>73</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F50" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J50" s="29" t="s">
         <v>55</v>
@@ -7114,13 +7117,13 @@
         <v>55</v>
       </c>
       <c r="N50" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P50" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q50" s="29" t="s">
         <v>56</v>
@@ -7128,7 +7131,7 @@
       <c r="R50" s="30"/>
       <c r="S50" s="31"/>
       <c r="T50" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7142,22 +7145,22 @@
         <v>73</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F51" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J51" s="29" t="s">
         <v>55</v>
@@ -7170,13 +7173,13 @@
         <v>55</v>
       </c>
       <c r="N51" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P51" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q51" s="29" t="s">
         <v>56</v>
@@ -7184,7 +7187,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="31"/>
       <c r="T51" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7198,22 +7201,22 @@
         <v>73</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F52" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J52" s="29" t="s">
         <v>55</v>
@@ -7226,13 +7229,13 @@
         <v>55</v>
       </c>
       <c r="N52" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P52" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q52" s="29" t="s">
         <v>56</v>
@@ -7240,7 +7243,7 @@
       <c r="R52" s="30"/>
       <c r="S52" s="31"/>
       <c r="T52" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7254,22 +7257,22 @@
         <v>73</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F53" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>55</v>
@@ -7282,13 +7285,13 @@
         <v>55</v>
       </c>
       <c r="N53" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O53" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P53" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q53" s="29" t="s">
         <v>56</v>
@@ -7296,7 +7299,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="31"/>
       <c r="T53" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7310,22 +7313,22 @@
         <v>73</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F54" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>55</v>
@@ -7338,13 +7341,13 @@
         <v>55</v>
       </c>
       <c r="N54" s="29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O54" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q54" s="29" t="s">
         <v>56</v>
@@ -7352,7 +7355,7 @@
       <c r="R54" s="30"/>
       <c r="S54" s="31"/>
       <c r="T54" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7366,22 +7369,22 @@
         <v>73</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F55" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>55</v>
@@ -7394,13 +7397,13 @@
         <v>55</v>
       </c>
       <c r="N55" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O55" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q55" s="29" t="s">
         <v>56</v>
@@ -7408,7 +7411,7 @@
       <c r="R55" s="30"/>
       <c r="S55" s="31"/>
       <c r="T55" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7422,22 +7425,22 @@
         <v>73</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F56" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J56" s="29" t="s">
         <v>55</v>
@@ -7450,13 +7453,13 @@
         <v>55</v>
       </c>
       <c r="N56" s="29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O56" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q56" s="29" t="s">
         <v>56</v>
@@ -7464,7 +7467,7 @@
       <c r="R56" s="30"/>
       <c r="S56" s="31"/>
       <c r="T56" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7478,22 +7481,22 @@
         <v>73</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F57" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>55</v>
@@ -7506,13 +7509,13 @@
         <v>55</v>
       </c>
       <c r="N57" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P57" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q57" s="29" t="s">
         <v>56</v>
@@ -7520,7 +7523,7 @@
       <c r="R57" s="30"/>
       <c r="S57" s="31"/>
       <c r="T57" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7534,22 +7537,22 @@
         <v>73</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F58" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J58" s="29" t="s">
         <v>55</v>
@@ -7562,13 +7565,13 @@
         <v>55</v>
       </c>
       <c r="N58" s="29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O58" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P58" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q58" s="29" t="s">
         <v>56</v>
@@ -7576,7 +7579,7 @@
       <c r="R58" s="30"/>
       <c r="S58" s="31"/>
       <c r="T58" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7590,22 +7593,22 @@
         <v>73</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F59" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J59" s="29" t="s">
         <v>55</v>
@@ -7618,13 +7621,13 @@
         <v>55</v>
       </c>
       <c r="N59" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O59" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P59" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q59" s="29" t="s">
         <v>56</v>
@@ -7632,7 +7635,7 @@
       <c r="R59" s="30"/>
       <c r="S59" s="31"/>
       <c r="T59" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7643,25 +7646,25 @@
         <v>47</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F60" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J60" s="29" t="s">
         <v>55</v>
@@ -7674,13 +7677,13 @@
         <v>55</v>
       </c>
       <c r="N60" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O60" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P60" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q60" s="29" t="s">
         <v>56</v>
@@ -7688,7 +7691,7 @@
       <c r="R60" s="30"/>
       <c r="S60" s="31"/>
       <c r="T60" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7699,25 +7702,25 @@
         <v>47</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F61" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J61" s="29" t="s">
         <v>55</v>
@@ -7730,13 +7733,13 @@
         <v>55</v>
       </c>
       <c r="N61" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O61" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q61" s="29" t="s">
         <v>56</v>
@@ -7744,7 +7747,7 @@
       <c r="R61" s="30"/>
       <c r="S61" s="31"/>
       <c r="T61" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7755,25 +7758,25 @@
         <v>47</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F62" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J62" s="29" t="s">
         <v>55</v>
@@ -7786,13 +7789,13 @@
         <v>55</v>
       </c>
       <c r="N62" s="35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O62" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P62" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q62" s="29" t="s">
         <v>56</v>
@@ -7800,7 +7803,7 @@
       <c r="R62" s="30"/>
       <c r="S62" s="31"/>
       <c r="T62" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7811,25 +7814,25 @@
         <v>47</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F63" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J63" s="29" t="s">
         <v>55</v>
@@ -7842,13 +7845,13 @@
         <v>55</v>
       </c>
       <c r="N63" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O63" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P63" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q63" s="29" t="s">
         <v>56</v>
@@ -7856,7 +7859,7 @@
       <c r="R63" s="30"/>
       <c r="S63" s="31"/>
       <c r="T63" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7867,25 +7870,25 @@
         <v>47</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F64" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J64" s="29" t="s">
         <v>55</v>
@@ -7898,13 +7901,13 @@
         <v>55</v>
       </c>
       <c r="N64" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O64" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P64" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q64" s="29" t="s">
         <v>56</v>
@@ -7912,7 +7915,7 @@
       <c r="R64" s="30"/>
       <c r="S64" s="31"/>
       <c r="T64" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7923,25 +7926,25 @@
         <v>47</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F65" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>55</v>
@@ -7954,13 +7957,13 @@
         <v>55</v>
       </c>
       <c r="N65" s="29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O65" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q65" s="29" t="s">
         <v>56</v>
@@ -7968,7 +7971,7 @@
       <c r="R65" s="30"/>
       <c r="S65" s="31"/>
       <c r="T65" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7979,25 +7982,25 @@
         <v>47</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F66" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>55</v>
@@ -8010,13 +8013,13 @@
         <v>55</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O66" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P66" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q66" s="29" t="s">
         <v>56</v>
@@ -8024,7 +8027,7 @@
       <c r="R66" s="30"/>
       <c r="S66" s="31"/>
       <c r="T66" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8035,25 +8038,25 @@
         <v>47</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F67" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J67" s="29" t="s">
         <v>55</v>
@@ -8066,13 +8069,13 @@
         <v>55</v>
       </c>
       <c r="N67" s="29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O67" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P67" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q67" s="29" t="s">
         <v>56</v>
@@ -8080,7 +8083,7 @@
       <c r="R67" s="30"/>
       <c r="S67" s="31"/>
       <c r="T67" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8091,25 +8094,25 @@
         <v>47</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F68" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J68" s="29" t="s">
         <v>55</v>
@@ -8122,13 +8125,13 @@
         <v>55</v>
       </c>
       <c r="N68" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O68" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q68" s="29" t="s">
         <v>56</v>
@@ -8136,7 +8139,7 @@
       <c r="R68" s="30"/>
       <c r="S68" s="31"/>
       <c r="T68" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8147,25 +8150,25 @@
         <v>47</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F69" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J69" s="29" t="s">
         <v>55</v>
@@ -8178,13 +8181,13 @@
         <v>55</v>
       </c>
       <c r="N69" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O69" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P69" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q69" s="29" t="s">
         <v>56</v>
@@ -8192,7 +8195,7 @@
       <c r="R69" s="30"/>
       <c r="S69" s="31"/>
       <c r="T69" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8203,25 +8206,25 @@
         <v>47</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F70" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J70" s="29" t="s">
         <v>55</v>
@@ -8234,13 +8237,13 @@
         <v>55</v>
       </c>
       <c r="N70" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O70" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P70" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q70" s="29" t="s">
         <v>56</v>
@@ -8248,7 +8251,7 @@
       <c r="R70" s="30"/>
       <c r="S70" s="31"/>
       <c r="T70" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8259,25 +8262,25 @@
         <v>47</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F71" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J71" s="29" t="s">
         <v>55</v>
@@ -8290,13 +8293,13 @@
         <v>55</v>
       </c>
       <c r="N71" s="29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O71" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P71" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q71" s="29" t="s">
         <v>56</v>
@@ -8304,7 +8307,7 @@
       <c r="R71" s="30"/>
       <c r="S71" s="31"/>
       <c r="T71" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8315,25 +8318,25 @@
         <v>47</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F72" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J72" s="29" t="s">
         <v>55</v>
@@ -8346,13 +8349,13 @@
         <v>55</v>
       </c>
       <c r="N72" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O72" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P72" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q72" s="29" t="s">
         <v>56</v>
@@ -8360,7 +8363,7 @@
       <c r="R72" s="30"/>
       <c r="S72" s="31"/>
       <c r="T72" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8371,25 +8374,25 @@
         <v>47</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F73" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J73" s="29" t="s">
         <v>55</v>
@@ -8402,13 +8405,13 @@
         <v>55</v>
       </c>
       <c r="N73" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O73" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P73" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q73" s="29" t="s">
         <v>56</v>
@@ -8416,7 +8419,7 @@
       <c r="R73" s="30"/>
       <c r="S73" s="31"/>
       <c r="T73" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8427,25 +8430,25 @@
         <v>47</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F74" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J74" s="29" t="s">
         <v>55</v>
@@ -8458,13 +8461,13 @@
         <v>55</v>
       </c>
       <c r="N74" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O74" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P74" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q74" s="29" t="s">
         <v>56</v>
@@ -8472,7 +8475,7 @@
       <c r="R74" s="30"/>
       <c r="S74" s="31"/>
       <c r="T74" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8483,42 +8486,42 @@
         <v>47</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F75" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J75" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K75" s="29"/>
       <c r="L75" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M75" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N75" s="33"/>
       <c r="O75" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P75" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q75" s="29" t="s">
         <v>56</v>
@@ -8526,7 +8529,7 @@
       <c r="R75" s="30"/>
       <c r="S75" s="31"/>
       <c r="T75" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8537,42 +8540,42 @@
         <v>47</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F76" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J76" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K76" s="29"/>
       <c r="L76" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M76" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N76" s="33"/>
       <c r="O76" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P76" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q76" s="29" t="s">
         <v>56</v>
@@ -8580,7 +8583,7 @@
       <c r="R76" s="30"/>
       <c r="S76" s="31"/>
       <c r="T76" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8591,19 +8594,19 @@
         <v>47</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F77" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
@@ -8612,17 +8615,17 @@
       </c>
       <c r="K77" s="29"/>
       <c r="L77" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M77" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N77" s="33"/>
       <c r="O77" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P77" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q77" s="29" t="s">
         <v>56</v>
@@ -8630,7 +8633,7 @@
       <c r="R77" s="30"/>
       <c r="S77" s="31"/>
       <c r="T77" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8641,25 +8644,25 @@
         <v>47</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F78" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J78" s="29" t="s">
         <v>55</v>
@@ -8669,14 +8672,14 @@
         <v>55</v>
       </c>
       <c r="M78" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N78" s="33"/>
       <c r="O78" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P78" s="33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q78" s="29" t="s">
         <v>56</v>
@@ -8684,7 +8687,7 @@
       <c r="R78" s="30"/>
       <c r="S78" s="31"/>
       <c r="T78" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8695,25 +8698,25 @@
         <v>47</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F79" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J79" s="29" t="s">
         <v>55</v>
@@ -8723,14 +8726,14 @@
         <v>55</v>
       </c>
       <c r="M79" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N79" s="33"/>
       <c r="O79" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P79" s="33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q79" s="29" t="s">
         <v>56</v>
@@ -8738,7 +8741,7 @@
       <c r="R79" s="30"/>
       <c r="S79" s="31"/>
       <c r="T79" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8749,25 +8752,25 @@
         <v>47</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F80" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J80" s="29" t="s">
         <v>55</v>
@@ -8780,13 +8783,13 @@
         <v>55</v>
       </c>
       <c r="N80" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O80" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P80" s="33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q80" s="29" t="s">
         <v>56</v>
@@ -8794,7 +8797,7 @@
       <c r="R80" s="30"/>
       <c r="S80" s="31"/>
       <c r="T80" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8805,25 +8808,25 @@
         <v>47</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F81" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J81" s="29" t="s">
         <v>55</v>
@@ -8833,14 +8836,14 @@
         <v>55</v>
       </c>
       <c r="M81" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N81" s="33"/>
       <c r="O81" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P81" s="33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q81" s="29" t="s">
         <v>56</v>
@@ -8848,7 +8851,7 @@
       <c r="R81" s="30"/>
       <c r="S81" s="31"/>
       <c r="T81" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8859,25 +8862,25 @@
         <v>47</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F82" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J82" s="29" t="s">
         <v>55</v>
@@ -8887,14 +8890,14 @@
         <v>55</v>
       </c>
       <c r="M82" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N82" s="33"/>
       <c r="O82" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P82" s="33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q82" s="29" t="s">
         <v>56</v>
@@ -8902,7 +8905,7 @@
       <c r="R82" s="30"/>
       <c r="S82" s="31"/>
       <c r="T82" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8913,25 +8916,25 @@
         <v>47</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F83" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H83" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J83" s="29" t="s">
         <v>55</v>
@@ -8941,14 +8944,14 @@
         <v>55</v>
       </c>
       <c r="M83" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N83" s="33"/>
       <c r="O83" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P83" s="33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q83" s="29" t="s">
         <v>56</v>
@@ -8956,7 +8959,7 @@
       <c r="R83" s="30"/>
       <c r="S83" s="31"/>
       <c r="T83" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8967,25 +8970,25 @@
         <v>47</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F84" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J84" s="29" t="s">
         <v>55</v>
@@ -8998,13 +9001,13 @@
         <v>55</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P84" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q84" s="29" t="s">
         <v>56</v>
@@ -9012,7 +9015,7 @@
       <c r="R84" s="30"/>
       <c r="S84" s="31"/>
       <c r="T84" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9023,25 +9026,25 @@
         <v>47</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F85" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J85" s="29" t="s">
         <v>55</v>
@@ -9051,14 +9054,14 @@
         <v>55</v>
       </c>
       <c r="M85" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N85" s="33"/>
       <c r="O85" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P85" s="33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q85" s="29" t="s">
         <v>56</v>
@@ -9066,7 +9069,7 @@
       <c r="R85" s="30"/>
       <c r="S85" s="31"/>
       <c r="T85" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9077,25 +9080,25 @@
         <v>47</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F86" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J86" s="29" t="s">
         <v>55</v>
@@ -9108,13 +9111,13 @@
         <v>55</v>
       </c>
       <c r="N86" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O86" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P86" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q86" s="29" t="s">
         <v>56</v>
@@ -9122,7 +9125,7 @@
       <c r="R86" s="30"/>
       <c r="S86" s="31"/>
       <c r="T86" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9133,25 +9136,25 @@
         <v>47</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F87" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H87" s="28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J87" s="29" t="s">
         <v>55</v>
@@ -9164,13 +9167,13 @@
         <v>55</v>
       </c>
       <c r="N87" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O87" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P87" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q87" s="29" t="s">
         <v>56</v>
@@ -9178,7 +9181,7 @@
       <c r="R87" s="30"/>
       <c r="S87" s="31"/>
       <c r="T87" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9189,25 +9192,25 @@
         <v>47</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F88" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J88" s="29" t="s">
         <v>55</v>
@@ -9220,13 +9223,13 @@
         <v>55</v>
       </c>
       <c r="N88" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O88" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P88" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q88" s="29" t="s">
         <v>56</v>
@@ -9234,7 +9237,7 @@
       <c r="R88" s="30"/>
       <c r="S88" s="31"/>
       <c r="T88" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9245,25 +9248,25 @@
         <v>47</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F89" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J89" s="29" t="s">
         <v>55</v>
@@ -9276,13 +9279,13 @@
         <v>55</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O89" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P89" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q89" s="29" t="s">
         <v>56</v>
@@ -9290,7 +9293,7 @@
       <c r="R89" s="30"/>
       <c r="S89" s="31"/>
       <c r="T89" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9301,42 +9304,42 @@
         <v>47</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F90" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J90" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K90" s="29"/>
       <c r="L90" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M90" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N90" s="33"/>
       <c r="O90" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P90" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q90" s="29" t="s">
         <v>56</v>
@@ -9344,7 +9347,7 @@
       <c r="R90" s="30"/>
       <c r="S90" s="31"/>
       <c r="T90" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9355,42 +9358,42 @@
         <v>47</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F91" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J91" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K91" s="29"/>
       <c r="L91" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M91" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N91" s="33"/>
       <c r="O91" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P91" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q91" s="29" t="s">
         <v>56</v>
@@ -9398,7 +9401,7 @@
       <c r="R91" s="30"/>
       <c r="S91" s="31"/>
       <c r="T91" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9409,42 +9412,42 @@
         <v>47</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F92" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J92" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K92" s="29"/>
       <c r="L92" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M92" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N92" s="33"/>
       <c r="O92" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P92" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q92" s="29" t="s">
         <v>56</v>
@@ -9452,7 +9455,7 @@
       <c r="R92" s="30"/>
       <c r="S92" s="31"/>
       <c r="T92" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9463,25 +9466,25 @@
         <v>47</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F93" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J93" s="29" t="s">
         <v>55</v>
@@ -9494,13 +9497,13 @@
         <v>55</v>
       </c>
       <c r="N93" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O93" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P93" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q93" s="29" t="s">
         <v>56</v>
@@ -9508,7 +9511,7 @@
       <c r="R93" s="30"/>
       <c r="S93" s="31"/>
       <c r="T93" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9519,42 +9522,42 @@
         <v>47</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F94" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H94" s="28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J94" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K94" s="29"/>
       <c r="L94" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M94" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N94" s="33"/>
       <c r="O94" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P94" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q94" s="29" t="s">
         <v>56</v>
@@ -9562,7 +9565,7 @@
       <c r="R94" s="30"/>
       <c r="S94" s="31"/>
       <c r="T94" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9573,25 +9576,25 @@
         <v>47</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F95" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H95" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J95" s="29" t="s">
         <v>55</v>
@@ -9604,13 +9607,13 @@
         <v>55</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O95" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P95" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q95" s="29" t="s">
         <v>56</v>
@@ -9618,7 +9621,7 @@
       <c r="R95" s="30"/>
       <c r="S95" s="31"/>
       <c r="T95" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9629,25 +9632,25 @@
         <v>47</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F96" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J96" s="29" t="s">
         <v>55</v>
@@ -9660,13 +9663,13 @@
         <v>55</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O96" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P96" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q96" s="29" t="s">
         <v>56</v>
@@ -9674,7 +9677,7 @@
       <c r="R96" s="30"/>
       <c r="S96" s="31"/>
       <c r="T96" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9685,42 +9688,42 @@
         <v>47</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F97" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H97" s="28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J97" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K97" s="29"/>
       <c r="L97" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M97" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N97" s="33"/>
       <c r="O97" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P97" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q97" s="29" t="s">
         <v>56</v>
@@ -9728,7 +9731,7 @@
       <c r="R97" s="30"/>
       <c r="S97" s="31"/>
       <c r="T97" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9739,42 +9742,42 @@
         <v>47</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F98" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J98" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K98" s="29"/>
       <c r="L98" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M98" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N98" s="33"/>
       <c r="O98" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P98" s="33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q98" s="29" t="s">
         <v>56</v>
@@ -9782,7 +9785,7 @@
       <c r="R98" s="30"/>
       <c r="S98" s="31"/>
       <c r="T98" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9793,42 +9796,42 @@
         <v>47</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F99" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J99" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K99" s="29"/>
       <c r="L99" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M99" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N99" s="33"/>
       <c r="O99" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P99" s="33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q99" s="29" t="s">
         <v>56</v>
@@ -9836,7 +9839,7 @@
       <c r="R99" s="30"/>
       <c r="S99" s="31"/>
       <c r="T99" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9847,42 +9850,42 @@
         <v>47</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F100" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J100" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K100" s="29"/>
       <c r="L100" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M100" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N100" s="33"/>
       <c r="O100" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P100" s="33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q100" s="29" t="s">
         <v>56</v>
@@ -9890,7 +9893,7 @@
       <c r="R100" s="30"/>
       <c r="S100" s="31"/>
       <c r="T100" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9901,42 +9904,42 @@
         <v>47</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F101" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J101" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K101" s="29"/>
       <c r="L101" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M101" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N101" s="33"/>
       <c r="O101" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P101" s="33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q101" s="29" t="s">
         <v>56</v>
@@ -9944,7 +9947,7 @@
       <c r="R101" s="30"/>
       <c r="S101" s="31"/>
       <c r="T101" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9955,42 +9958,42 @@
         <v>47</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F102" s="27" t="n">
         <v>45016</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J102" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K102" s="29"/>
       <c r="L102" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M102" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N102" s="33"/>
       <c r="O102" s="33" t="s">
         <v>55</v>
       </c>
       <c r="P102" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q102" s="29" t="s">
         <v>56</v>
@@ -9998,7 +10001,7 @@
       <c r="R102" s="30"/>
       <c r="S102" s="31"/>
       <c r="T102" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19915,7 +19918,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.88"/>
@@ -19934,24 +19937,24 @@
         <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19959,27 +19962,27 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19987,97 +19990,97 @@
         <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C10" s="36" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20085,27 +20088,27 @@
         <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20113,83 +20116,83 @@
         <v>73</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20197,27 +20200,27 @@
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20225,83 +20228,83 @@
         <v>73</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20309,27 +20312,27 @@
         <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20337,77 +20340,77 @@
         <v>73</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C35" s="36" t="n">
         <v>195</v>
@@ -20421,7 +20424,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C36" s="36" t="n">
         <v>211</v>
@@ -20432,10 +20435,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C37" s="36" t="n">
         <v>227</v>
@@ -20449,7 +20452,7 @@
         <v>73</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C38" s="36" t="n">
         <v>243</v>
@@ -20460,10 +20463,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C39" s="36" t="n">
         <v>259</v>
@@ -20474,10 +20477,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C40" s="36" t="n">
         <v>275</v>
@@ -20488,10 +20491,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C41" s="36" t="n">
         <v>291</v>
@@ -20502,10 +20505,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C42" s="36" t="n">
         <v>307</v>
@@ -20516,10 +20519,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C43" s="36" t="n">
         <v>196</v>
@@ -20533,7 +20536,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C44" s="36" t="n">
         <v>212</v>
@@ -20544,10 +20547,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C45" s="36" t="n">
         <v>228</v>
@@ -20561,7 +20564,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C46" s="36" t="n">
         <v>244</v>
@@ -20572,10 +20575,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C47" s="36" t="n">
         <v>260</v>
@@ -20586,10 +20589,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C48" s="36" t="n">
         <v>276</v>
@@ -20600,10 +20603,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C49" s="36" t="n">
         <v>292</v>
@@ -20614,10 +20617,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C50" s="36" t="n">
         <v>308</v>
@@ -21595,7 +21598,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
@@ -21620,10 +21623,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -541,13 +541,13 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-12T14:14:14Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c93723c1ad810d5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.8055c997ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-15T14:21:54Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b9abdabdf5a98f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.f832cde74f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT4</t>
@@ -558,13 +558,13 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-12T14:14:15Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a47dd703ddc31fd4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.925ce43f63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-15T14:21:56Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">068b81dc8487bf50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.e5515064ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -5626,11 +5626,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I134" activeCellId="0" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6520,7 +6520,7 @@
         <v>125</v>
       </c>
       <c r="F24" s="27" t="n">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>126</v>
@@ -6564,7 +6564,7 @@
         <v>130</v>
       </c>
       <c r="F25" s="27" t="n">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>131</v>

--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="722">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1764,6 +1764,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.967e08475d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene inserito il valore di default ("N") e rigenerato il CDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT6_KO</t>
   </si>
   <si>
@@ -1783,9 +1786,6 @@
     <t xml:space="preserve">Si chiede all'utente di correggere il dato</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestione dell'anomalia</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT7_KO</t>
   </si>
   <si>
@@ -1800,12 +1800,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.721a34439a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si chiede all'utente di compilare il dato mancante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referto non inviato a FSE in mancanza di questo dato</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT8_KO</t>
@@ -1825,6 +1819,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.6318ebe565^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si chiede all'utente di compilare il dato mancante</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT9_KO</t>
   </si>
   <si>
@@ -1855,9 +1852,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.e46d89cdd8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correzione/aggiornamento della base dati da cui vengono presi i dati</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT11_KO</t>
@@ -1974,7 +1968,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.e81fa2dc6b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Il CDA viene generato omettendo la sezione facoltativa</t>
+    <t xml:space="preserve">Il CDA viene rigenerato omettendo la sezione che ha causato l’errore:
+ClinicalDocument/component/structuredBody/component/section[@ID="Inquadramento_Clinico"]/component/section[@ID="Anamnesi"]/entry ("Problem")
+La mancanza di tale senzione, in quanto OPZIONALE, non pregiudica l’integrità del CDA che, pur senza questo dettaglio strutturato, può essere inviato in validazione senza l’intervento dell’utente.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT18_KO</t>
@@ -1993,6 +1989,11 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.2250aaa0d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il CDA viene rigenerato omettendo la sezione che ha causato l’errore:
+ClinicalDocument/component/structuredBody/component/section[@ID="Inquadramento_Clinico"]/component/section[@ID="Anamnesi"]/entry ("Storia di malattie di membri familiari")
+La mancanza di tale senzione, in quanto OPZIONALE, non pregiudica l’integrità del CDA che, pur senza questo dettaglio strutturato, può essere inviato in validazione senza l’intervento dell’utente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT19_KO</t>
   </si>
   <si>
@@ -2007,6 +2008,11 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.6afc67c4aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il CDA viene rigenerato omettendo la sezione che ha causato l’errore:
+ClinicalDocument/component/structuredBody/component/section[@ID="Inquadramento_Clinico"]/component/section[@ID="Allergie"]/entry 
+La mancanza di tale senzione, in quanto OPZIONALE, non pregiudica l’integrità del CDA che, pur senza questo dettaglio strutturato, può essere inviato in validazione senza l’intervento dell’utente.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT20_KO</t>
@@ -2042,6 +2048,11 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.d6e08641c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il CDA viene rigenerato omettendo la sezione che ha causato l’errore:
+ClinicalDocument/component/structuredBody/component/section[@ID="Complicanze"]/entry 
+La mancanza di tale senzione, in quanto OPZIONALE, non pregiudica l’integrità del CDA che, pur senza questo dettaglio strutturato, può essere inviato in validazione senza l’intervento dell’utente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT22_KO</t>
   </si>
   <si>
@@ -2091,6 +2102,11 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.b0c880fe91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il CDA viene rigenerato omettendo la sezione che ha causato l’errore:
+ClinicalDocument/component/structuredBody/component/section[@ID="Terapia_Farmacologica_alla_Dimissione"]/entry 
+La mancanza di tale senzione, in quanto OPZIONALE, non pregiudica l’integrità del CDA che, pur senza questo dettaglio strutturato, può essere inviato in validazione senza l’intervento dell’utente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT25_KO</t>
   </si>
   <si>
@@ -2105,6 +2121,10 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.8a6bc47f00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il documento viene generato e archiviato, ma non inviato a FSE.
+L’errore rilevato viene successivamente analizzato per verificare se sono necessari eventali interventi di correzione e/o aggiornamento delle codifiche utilizzate dal software.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT26_KO</t>
@@ -2154,6 +2174,12 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.b8a94729688480590c90a8f1465282237c5d2ed760ac61783627461658867f66.ff4c763b0e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il CDA viene rigenerato omettendo la sezione che ha causato l’errore:
+ClinicalDocument/component/structuredBody/component/section[@ID="Terapia_Farmacologica_alla_Dimissione"]/entry 
+La mancanza di tale senzione, in quanto OPZIONALE, non pregiudica l’integrità del CDA che, pur senza questo dettaglio strutturato, può essere inviato in validazione senza l’intervento dell’utente.
+L’errore rilevato viene successivamente analizzato per verificare se sono necessari eventali interventi di correzione e/o aggiornamento delle codifiche utilizzate dal software.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT29_KO</t>
@@ -2366,6 +2392,11 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.cc97c8ebb76a9d62019ab1a3359b64f73d19a8b09a79bd856d825664df35ff3b.130f728385^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il CDA viene rigenerato omettendo la sezione che ha causato l’errore:
+ClinicalDocument/inFulfillmentOf 
+La mancanza di tale senzione, in quanto OPZIONALE, non pregiudica l’integrità del CDA che può essere inviato in validazione senza l’intervento dell’utente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
   </si>
   <si>
@@ -2484,7 +2515,8 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.70.4.4.1dc7b4cc2808cbb76d6da5df33109fcd1e1815278fec9e2f0de9e1a734e893ef.f569120c6a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Il documento viene contrassegnato come non firmato e accantonato per successive analisi.</t>
+    <t xml:space="preserve">Il documento viene generato e archiviato, ma non inviato a FSE.
+L’errore rilevato viene successivamente analizzato per verificare se sono necessarie eventali correzioni del software.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT0</t>
@@ -2751,7 +2783,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2834,6 +2866,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2980,7 +3019,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3134,6 +3173,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3445,7 +3492,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="117:117 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4519,7 +4566,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="117:117 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5626,11 +5673,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I134" activeCellId="0" sqref="I134"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="B117" activeCellId="0" sqref="117:117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9534,7 +9581,7 @@
       </c>
       <c r="K81" s="29"/>
       <c r="L81" s="29" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="M81" s="29" t="s">
         <v>139</v>
@@ -9543,8 +9590,8 @@
       <c r="O81" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P81" s="29" t="s">
-        <v>187</v>
+      <c r="P81" s="39" t="s">
+        <v>421</v>
       </c>
       <c r="Q81" s="29"/>
       <c r="R81" s="31"/>
@@ -9564,22 +9611,22 @@
         <v>113</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F82" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J82" s="36" t="s">
         <v>54</v>
@@ -9592,13 +9639,13 @@
         <v>54</v>
       </c>
       <c r="N82" s="37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O82" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P82" s="36" t="s">
-        <v>427</v>
+      <c r="P82" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q82" s="29"/>
       <c r="R82" s="31"/>
@@ -9640,19 +9687,17 @@
       </c>
       <c r="K83" s="29"/>
       <c r="L83" s="29" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="M83" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="N83" s="30" t="s">
-        <v>433</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N83" s="30"/>
       <c r="O83" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P83" s="29" t="s">
-        <v>434</v>
+        <v>54</v>
+      </c>
+      <c r="P83" s="39" t="s">
+        <v>421</v>
       </c>
       <c r="Q83" s="29"/>
       <c r="R83" s="31"/>
@@ -9672,22 +9717,22 @@
         <v>113</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F84" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G84" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="H84" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="I84" s="28" t="s">
         <v>437</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>439</v>
       </c>
       <c r="J84" s="36" t="s">
         <v>54</v>
@@ -9700,13 +9745,13 @@
         <v>54</v>
       </c>
       <c r="N84" s="37" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O84" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P84" s="36" t="s">
-        <v>427</v>
+      <c r="P84" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q84" s="29"/>
       <c r="R84" s="31"/>
@@ -9726,22 +9771,22 @@
         <v>113</v>
       </c>
       <c r="D85" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E85" s="26" t="s">
         <v>440</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>441</v>
       </c>
       <c r="F85" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G85" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="H85" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="H85" s="28" t="s">
+      <c r="I85" s="28" t="s">
         <v>443</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>444</v>
       </c>
       <c r="J85" s="36" t="s">
         <v>54</v>
@@ -9754,13 +9799,13 @@
         <v>54</v>
       </c>
       <c r="N85" s="37" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O85" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P85" s="36" t="s">
-        <v>427</v>
+      <c r="P85" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q85" s="29"/>
       <c r="R85" s="31"/>
@@ -9780,22 +9825,22 @@
         <v>113</v>
       </c>
       <c r="D86" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E86" s="26" t="s">
         <v>445</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>446</v>
       </c>
       <c r="F86" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G86" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="I86" s="28" t="s">
         <v>448</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>449</v>
       </c>
       <c r="J86" s="36" t="s">
         <v>54</v>
@@ -9811,8 +9856,8 @@
       <c r="O86" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="P86" s="36" t="s">
-        <v>450</v>
+      <c r="P86" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q86" s="29"/>
       <c r="R86" s="31"/>
@@ -9832,22 +9877,22 @@
         <v>113</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F87" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G87" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="I87" s="28" t="s">
         <v>453</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>455</v>
       </c>
       <c r="J87" s="29" t="s">
         <v>54</v>
@@ -9860,13 +9905,13 @@
         <v>54</v>
       </c>
       <c r="N87" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O87" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P87" s="29" t="s">
-        <v>427</v>
+      <c r="P87" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q87" s="29"/>
       <c r="R87" s="31"/>
@@ -9886,22 +9931,22 @@
         <v>113</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F88" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G88" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="I88" s="28" t="s">
         <v>458</v>
-      </c>
-      <c r="H88" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>460</v>
       </c>
       <c r="J88" s="36" t="s">
         <v>54</v>
@@ -9914,13 +9959,13 @@
         <v>54</v>
       </c>
       <c r="N88" s="37" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O88" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P88" s="36" t="s">
-        <v>427</v>
+      <c r="P88" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q88" s="29"/>
       <c r="R88" s="31"/>
@@ -9940,22 +9985,22 @@
         <v>113</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F89" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G89" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="I89" s="28" t="s">
         <v>463</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="I89" s="28" t="s">
-        <v>465</v>
       </c>
       <c r="J89" s="29" t="s">
         <v>54</v>
@@ -9968,13 +10013,13 @@
         <v>54</v>
       </c>
       <c r="N89" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O89" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P89" s="29" t="s">
-        <v>427</v>
+      <c r="P89" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q89" s="29"/>
       <c r="R89" s="31"/>
@@ -9994,22 +10039,22 @@
         <v>113</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F90" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G90" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="I90" s="28" t="s">
         <v>468</v>
-      </c>
-      <c r="H90" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>470</v>
       </c>
       <c r="J90" s="29" t="s">
         <v>54</v>
@@ -10022,13 +10067,13 @@
         <v>54</v>
       </c>
       <c r="N90" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O90" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P90" s="29" t="s">
-        <v>427</v>
+      <c r="P90" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q90" s="29"/>
       <c r="R90" s="31"/>
@@ -10048,22 +10093,22 @@
         <v>113</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F91" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G91" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="I91" s="28" t="s">
         <v>473</v>
-      </c>
-      <c r="H91" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>475</v>
       </c>
       <c r="J91" s="29" t="s">
         <v>54</v>
@@ -10076,13 +10121,13 @@
         <v>54</v>
       </c>
       <c r="N91" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O91" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P91" s="29" t="s">
-        <v>427</v>
+      <c r="P91" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q91" s="29"/>
       <c r="R91" s="31"/>
@@ -10102,22 +10147,22 @@
         <v>113</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F92" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G92" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="I92" s="28" t="s">
         <v>478</v>
-      </c>
-      <c r="H92" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="I92" s="28" t="s">
-        <v>480</v>
       </c>
       <c r="J92" s="29" t="s">
         <v>54</v>
@@ -10130,13 +10175,13 @@
         <v>54</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O92" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P92" s="29" t="s">
-        <v>427</v>
+      <c r="P92" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="Q92" s="29"/>
       <c r="R92" s="31"/>
@@ -10156,22 +10201,22 @@
         <v>113</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F93" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G93" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="I93" s="28" t="s">
         <v>483</v>
-      </c>
-      <c r="H93" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>485</v>
       </c>
       <c r="J93" s="29" t="s">
         <v>54</v>
@@ -10187,8 +10232,8 @@
       <c r="O93" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P93" s="29" t="s">
-        <v>486</v>
+      <c r="P93" s="40" t="s">
+        <v>484</v>
       </c>
       <c r="Q93" s="29"/>
       <c r="R93" s="31"/>
@@ -10208,22 +10253,22 @@
         <v>113</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F94" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G94" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="I94" s="28" t="s">
         <v>489</v>
-      </c>
-      <c r="H94" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>491</v>
       </c>
       <c r="J94" s="29" t="s">
         <v>54</v>
@@ -10239,8 +10284,8 @@
       <c r="O94" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P94" s="29" t="s">
-        <v>486</v>
+      <c r="P94" s="40" t="s">
+        <v>490</v>
       </c>
       <c r="Q94" s="29"/>
       <c r="R94" s="31"/>
@@ -10260,22 +10305,22 @@
         <v>113</v>
       </c>
       <c r="D95" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="E95" s="26" t="s">
         <v>492</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>493</v>
       </c>
       <c r="F95" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G95" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="H95" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="H95" s="28" t="s">
+      <c r="I95" s="28" t="s">
         <v>495</v>
-      </c>
-      <c r="I95" s="28" t="s">
-        <v>496</v>
       </c>
       <c r="J95" s="29" t="s">
         <v>54</v>
@@ -10291,8 +10336,8 @@
       <c r="O95" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P95" s="29" t="s">
-        <v>486</v>
+      <c r="P95" s="40" t="s">
+        <v>496</v>
       </c>
       <c r="Q95" s="29"/>
       <c r="R95" s="31"/>
@@ -10340,13 +10385,13 @@
         <v>54</v>
       </c>
       <c r="N96" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O96" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P96" s="29" t="s">
-        <v>427</v>
+      <c r="P96" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="Q96" s="29"/>
       <c r="R96" s="31"/>
@@ -10397,8 +10442,8 @@
       <c r="O97" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P97" s="29" t="s">
-        <v>486</v>
+      <c r="P97" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="Q97" s="29"/>
       <c r="R97" s="31"/>
@@ -10418,22 +10463,22 @@
         <v>113</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F98" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J98" s="29" t="s">
         <v>54</v>
@@ -10446,13 +10491,13 @@
         <v>54</v>
       </c>
       <c r="N98" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O98" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P98" s="29" t="s">
-        <v>427</v>
+      <c r="P98" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="Q98" s="29"/>
       <c r="R98" s="31"/>
@@ -10472,22 +10517,22 @@
         <v>113</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F99" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J99" s="29" t="s">
         <v>54</v>
@@ -10500,13 +10545,13 @@
         <v>54</v>
       </c>
       <c r="N99" s="30" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O99" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P99" s="29" t="s">
-        <v>427</v>
+      <c r="P99" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="Q99" s="29"/>
       <c r="R99" s="31"/>
@@ -10526,22 +10571,22 @@
         <v>113</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F100" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J100" s="29" t="s">
         <v>54</v>
@@ -10557,8 +10602,8 @@
       <c r="O100" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P100" s="29" t="s">
-        <v>486</v>
+      <c r="P100" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="Q100" s="29"/>
       <c r="R100" s="31"/>
@@ -10578,22 +10623,22 @@
         <v>113</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F101" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J101" s="29" t="s">
         <v>54</v>
@@ -10609,8 +10654,8 @@
       <c r="O101" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P101" s="29" t="s">
-        <v>450</v>
+      <c r="P101" s="40" t="s">
+        <v>529</v>
       </c>
       <c r="Q101" s="29"/>
       <c r="R101" s="31"/>
@@ -10630,22 +10675,22 @@
         <v>113</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F102" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J102" s="29" t="s">
         <v>54</v>
@@ -10661,8 +10706,8 @@
       <c r="O102" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P102" s="29" t="s">
-        <v>450</v>
+      <c r="P102" s="40" t="s">
+        <v>529</v>
       </c>
       <c r="Q102" s="29"/>
       <c r="R102" s="31"/>
@@ -10682,22 +10727,22 @@
         <v>113</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F103" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J103" s="29" t="s">
         <v>54</v>
@@ -10713,8 +10758,8 @@
       <c r="O103" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P103" s="29" t="s">
-        <v>450</v>
+      <c r="P103" s="40" t="s">
+        <v>529</v>
       </c>
       <c r="Q103" s="29"/>
       <c r="R103" s="31"/>
@@ -10734,22 +10779,22 @@
         <v>113</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F104" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H104" s="28" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="I104" s="28" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J104" s="29" t="s">
         <v>54</v>
@@ -10765,8 +10810,8 @@
       <c r="O104" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P104" s="29" t="s">
-        <v>450</v>
+      <c r="P104" s="40" t="s">
+        <v>545</v>
       </c>
       <c r="Q104" s="29"/>
       <c r="R104" s="31"/>
@@ -10786,22 +10831,22 @@
         <v>113</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F105" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H105" s="28" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="J105" s="29" t="s">
         <v>54</v>
@@ -10817,8 +10862,8 @@
       <c r="O105" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P105" s="29" t="s">
-        <v>486</v>
+      <c r="P105" s="40" t="s">
+        <v>496</v>
       </c>
       <c r="Q105" s="29"/>
       <c r="R105" s="31"/>
@@ -10838,22 +10883,22 @@
         <v>142</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F106" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="J106" s="29" t="s">
         <v>54</v>
@@ -10882,12 +10927,12 @@
         <v>142</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="F107" s="39"/>
+        <v>557</v>
+      </c>
+      <c r="F107" s="41"/>
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
@@ -10895,7 +10940,7 @@
         <v>139</v>
       </c>
       <c r="K107" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L107" s="29"/>
       <c r="M107" s="29"/>
@@ -10920,12 +10965,12 @@
         <v>142</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="F108" s="39"/>
+        <v>560</v>
+      </c>
+      <c r="F108" s="41"/>
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
@@ -10933,7 +10978,7 @@
         <v>139</v>
       </c>
       <c r="K108" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L108" s="29"/>
       <c r="M108" s="29"/>
@@ -10958,12 +11003,12 @@
         <v>142</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="F109" s="39"/>
+        <v>562</v>
+      </c>
+      <c r="F109" s="41"/>
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
@@ -10971,7 +11016,7 @@
         <v>139</v>
       </c>
       <c r="K109" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L109" s="29"/>
       <c r="M109" s="29"/>
@@ -10996,22 +11041,22 @@
         <v>142</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F110" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H110" s="28" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="I110" s="28" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="J110" s="29" t="s">
         <v>54</v>
@@ -11048,22 +11093,22 @@
         <v>142</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F111" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I111" s="28" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="J111" s="29" t="s">
         <v>54</v>
@@ -11102,22 +11147,22 @@
         <v>142</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F112" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="I112" s="28" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J112" s="29" t="s">
         <v>54</v>
@@ -11154,22 +11199,22 @@
         <v>142</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F113" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H113" s="28" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="I113" s="28" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="J113" s="29" t="s">
         <v>54</v>
@@ -11208,22 +11253,22 @@
         <v>142</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F114" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H114" s="28" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="I114" s="28" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="J114" s="29" t="s">
         <v>54</v>
@@ -11262,22 +11307,22 @@
         <v>142</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F115" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="J115" s="29" t="s">
         <v>54</v>
@@ -11316,12 +11361,12 @@
         <v>142</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="F116" s="39"/>
+        <v>594</v>
+      </c>
+      <c r="F116" s="41"/>
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
@@ -11329,7 +11374,7 @@
         <v>139</v>
       </c>
       <c r="K116" s="29" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L116" s="29"/>
       <c r="M116" s="29"/>
@@ -11354,22 +11399,22 @@
         <v>142</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F117" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H117" s="28" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J117" s="29" t="s">
         <v>54</v>
@@ -11406,22 +11451,22 @@
         <v>142</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F118" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H118" s="28" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I118" s="28" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="J118" s="29" t="s">
         <v>54</v>
@@ -11437,8 +11482,8 @@
       <c r="O118" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P118" s="29" t="s">
-        <v>486</v>
+      <c r="P118" s="40" t="s">
+        <v>606</v>
       </c>
       <c r="Q118" s="29"/>
       <c r="R118" s="31"/>
@@ -11458,22 +11503,22 @@
         <v>142</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="F119" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I119" s="28" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J119" s="29" t="s">
         <v>54</v>
@@ -11512,22 +11557,22 @@
         <v>142</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="F120" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H120" s="28" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="I120" s="28" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="J120" s="29" t="s">
         <v>54</v>
@@ -11566,12 +11611,12 @@
         <v>142</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="F121" s="39"/>
+        <v>618</v>
+      </c>
+      <c r="F121" s="41"/>
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
@@ -11579,7 +11624,7 @@
         <v>139</v>
       </c>
       <c r="K121" s="29" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="L121" s="29"/>
       <c r="M121" s="29"/>
@@ -11604,22 +11649,22 @@
         <v>142</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F122" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G122" s="28" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="H122" s="28" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="I122" s="28" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="J122" s="29" t="s">
         <v>54</v>
@@ -11658,12 +11703,12 @@
         <v>142</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="F123" s="39"/>
+        <v>626</v>
+      </c>
+      <c r="F123" s="41"/>
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
@@ -11671,7 +11716,7 @@
         <v>139</v>
       </c>
       <c r="K123" s="29" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L123" s="29"/>
       <c r="M123" s="29"/>
@@ -11696,12 +11741,12 @@
         <v>142</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="F124" s="39"/>
+        <v>628</v>
+      </c>
+      <c r="F124" s="41"/>
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
@@ -11709,7 +11754,7 @@
         <v>139</v>
       </c>
       <c r="K124" s="29" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L124" s="29"/>
       <c r="M124" s="29"/>
@@ -11734,12 +11779,12 @@
         <v>142</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="F125" s="39"/>
+        <v>630</v>
+      </c>
+      <c r="F125" s="41"/>
       <c r="G125" s="28"/>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
@@ -11747,7 +11792,7 @@
         <v>139</v>
       </c>
       <c r="K125" s="29" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L125" s="29"/>
       <c r="M125" s="29"/>
@@ -11772,12 +11817,12 @@
         <v>142</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F126" s="39"/>
+        <v>632</v>
+      </c>
+      <c r="F126" s="41"/>
       <c r="G126" s="28"/>
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
@@ -11785,7 +11830,7 @@
         <v>139</v>
       </c>
       <c r="K126" s="29" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
@@ -11810,12 +11855,12 @@
         <v>142</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F127" s="39"/>
+        <v>634</v>
+      </c>
+      <c r="F127" s="41"/>
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
@@ -11823,7 +11868,7 @@
         <v>139</v>
       </c>
       <c r="K127" s="29" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="L127" s="29"/>
       <c r="M127" s="29"/>
@@ -11848,22 +11893,22 @@
         <v>142</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F128" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="H128" s="28" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="I128" s="28" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="J128" s="29" t="s">
         <v>54</v>
@@ -11879,8 +11924,8 @@
       <c r="O128" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P128" s="29" t="s">
-        <v>635</v>
+      <c r="P128" s="39" t="s">
+        <v>640</v>
       </c>
       <c r="Q128" s="29"/>
       <c r="R128" s="31"/>
@@ -11900,22 +11945,22 @@
         <v>48</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="F129" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="I129" s="28" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="J129" s="29" t="s">
         <v>54</v>
@@ -11944,22 +11989,22 @@
         <v>71</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F130" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H130" s="28" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="I130" s="28" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="J130" s="29" t="s">
         <v>54</v>
@@ -11988,22 +12033,22 @@
         <v>92</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F131" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H131" s="28" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="I131" s="28" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="J131" s="29" t="s">
         <v>54</v>
@@ -12032,22 +12077,22 @@
         <v>113</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="F132" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="H132" s="28" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="I132" s="28" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="J132" s="29" t="s">
         <v>54</v>
@@ -12076,22 +12121,22 @@
         <v>142</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F133" s="27" t="n">
         <v>45363</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H133" s="28" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="I133" s="28" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="J133" s="29" t="s">
         <v>54</v>
@@ -17021,8 +17066,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="125">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L22:M25 O22:O25 L30:M30 O30 L35:M35 O35 L40:M40 O40 L81:M105 O82:O105 P83" type="list">
+  <dataValidations count="124">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L22:M25 O22:O25 L30:M30 O30 L35:M35 O35 L40:M40 O40 L81:M105 O82:O105" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17518,10 +17563,6 @@
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P82 P84:P85 P87:P92 P96 P98:P99" type="list">
-      <formula1>Sheet1!$A$2:$A$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -17545,7 +17586,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="117:117 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17565,24 +17606,24 @@
         <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>666</v>
+        <v>669</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17590,27 +17631,27 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>671</v>
+      <c r="C4" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17618,13 +17659,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>672</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>673</v>
+        <v>669</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17632,13 +17673,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>674</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>675</v>
+        <v>669</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17646,13 +17687,13 @@
         <v>113</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>676</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>677</v>
+        <v>669</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17660,55 +17701,55 @@
         <v>142</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>678</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>679</v>
+        <v>669</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>681</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>682</v>
+        <v>669</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>684</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>685</v>
+        <v>669</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>689</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C11" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C11" s="42" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>687</v>
+      <c r="D11" s="42" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17716,27 +17757,27 @@
         <v>48</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C12" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C12" s="42" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>688</v>
+      <c r="D12" s="42" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C13" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C13" s="42" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>689</v>
+      <c r="D13" s="43" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17744,13 +17785,13 @@
         <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C14" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C14" s="42" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>690</v>
+      <c r="D14" s="42" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17758,13 +17799,13 @@
         <v>92</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C15" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C15" s="42" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>691</v>
+      <c r="D15" s="43" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17772,13 +17813,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C16" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C16" s="42" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>692</v>
+      <c r="D16" s="43" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17786,41 +17827,41 @@
         <v>142</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C17" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C17" s="42" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>693</v>
+      <c r="D17" s="43" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C18" s="40" t="n">
+        <v>691</v>
+      </c>
+      <c r="C18" s="42" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>694</v>
+      <c r="D18" s="43" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C19" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C19" s="42" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>696</v>
+      <c r="D19" s="42" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17828,27 +17869,27 @@
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C20" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C20" s="42" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>697</v>
+      <c r="D20" s="42" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C21" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C21" s="42" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>698</v>
+      <c r="D21" s="43" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17856,13 +17897,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C22" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C22" s="42" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>699</v>
+      <c r="D22" s="42" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17870,13 +17911,13 @@
         <v>92</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C23" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C23" s="42" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>700</v>
+      <c r="D23" s="43" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17884,13 +17925,13 @@
         <v>113</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C24" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C24" s="42" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>701</v>
+      <c r="D24" s="43" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17898,41 +17939,41 @@
         <v>142</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C25" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C25" s="42" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>702</v>
+      <c r="D25" s="43" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C26" s="40" t="n">
+        <v>700</v>
+      </c>
+      <c r="C26" s="42" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>703</v>
+      <c r="D26" s="43" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C27" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C27" s="42" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="40" t="s">
-        <v>705</v>
+      <c r="D27" s="42" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17940,27 +17981,27 @@
         <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C28" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C28" s="42" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>706</v>
+      <c r="D28" s="42" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C29" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C29" s="42" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>707</v>
+      <c r="D29" s="44" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17968,13 +18009,13 @@
         <v>71</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C30" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C30" s="42" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>708</v>
+      <c r="D30" s="42" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17982,13 +18023,13 @@
         <v>92</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C31" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C31" s="42" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>709</v>
+      <c r="D31" s="43" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17996,13 +18037,13 @@
         <v>113</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C32" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C32" s="42" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="41" t="s">
-        <v>710</v>
+      <c r="D32" s="43" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18010,40 +18051,40 @@
         <v>142</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C33" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C33" s="42" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>711</v>
+      <c r="D33" s="43" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C34" s="40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C34" s="42" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>712</v>
+      <c r="D34" s="43" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C35" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C35" s="42" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="40" t="n">
+      <c r="D35" s="42" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18052,26 +18093,26 @@
         <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C36" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C36" s="42" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="40" t="n">
+      <c r="D36" s="42" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C37" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C37" s="42" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="41" t="n">
+      <c r="D37" s="43" t="n">
         <v>236</v>
       </c>
     </row>
@@ -18080,12 +18121,12 @@
         <v>71</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C38" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C38" s="42" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="40" t="n">
+      <c r="D38" s="42" t="n">
         <v>252</v>
       </c>
     </row>
@@ -18094,12 +18135,12 @@
         <v>92</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C39" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C39" s="42" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="41" t="n">
+      <c r="D39" s="43" t="n">
         <v>268</v>
       </c>
     </row>
@@ -18108,12 +18149,12 @@
         <v>113</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C40" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C40" s="42" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="41" t="n">
+      <c r="D40" s="43" t="n">
         <v>284</v>
       </c>
     </row>
@@ -18122,40 +18163,40 @@
         <v>142</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C41" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C41" s="42" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="41" t="n">
+      <c r="D41" s="43" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C42" s="40" t="n">
+        <v>718</v>
+      </c>
+      <c r="C42" s="42" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="41" t="n">
+      <c r="D42" s="43" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C43" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C43" s="42" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="40" t="n">
+      <c r="D43" s="42" t="n">
         <v>207</v>
       </c>
     </row>
@@ -18164,26 +18205,26 @@
         <v>48</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C44" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C44" s="42" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="40" t="n">
+      <c r="D44" s="42" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C45" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C45" s="42" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="41" t="n">
+      <c r="D45" s="43" t="n">
         <v>239</v>
       </c>
     </row>
@@ -18192,12 +18233,12 @@
         <v>71</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C46" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C46" s="42" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="40" t="n">
+      <c r="D46" s="42" t="n">
         <v>255</v>
       </c>
     </row>
@@ -18206,12 +18247,12 @@
         <v>92</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C47" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C47" s="42" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="41" t="n">
+      <c r="D47" s="43" t="n">
         <v>271</v>
       </c>
     </row>
@@ -18220,12 +18261,12 @@
         <v>113</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C48" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C48" s="42" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="41" t="n">
+      <c r="D48" s="43" t="n">
         <v>287</v>
       </c>
     </row>
@@ -18234,26 +18275,26 @@
         <v>142</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C49" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C49" s="42" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="41" t="n">
+      <c r="D49" s="43" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C50" s="40" t="n">
+        <v>719</v>
+      </c>
+      <c r="C50" s="42" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="41" t="n">
+      <c r="D50" s="43" t="n">
         <v>319</v>
       </c>
     </row>
@@ -19226,7 +19267,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="117:117 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19246,7 +19287,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
@@ -19254,7 +19295,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>139</v>

--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -3019,7 +3019,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3176,11 +3176,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3492,7 +3488,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="117:117 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4566,7 +4562,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="117:117 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5673,11 +5669,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
-      <selection pane="bottomRight" activeCell="B117" activeCellId="0" sqref="117:117"/>
+      <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9590,7 +9586,7 @@
       <c r="O81" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P81" s="39" t="s">
+      <c r="P81" s="29" t="s">
         <v>421</v>
       </c>
       <c r="Q81" s="29"/>
@@ -9644,7 +9640,7 @@
       <c r="O82" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P82" s="39" t="s">
+      <c r="P82" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q82" s="29"/>
@@ -9696,7 +9692,7 @@
       <c r="O83" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P83" s="39" t="s">
+      <c r="P83" s="29" t="s">
         <v>421</v>
       </c>
       <c r="Q83" s="29"/>
@@ -9750,7 +9746,7 @@
       <c r="O84" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P84" s="39" t="s">
+      <c r="P84" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q84" s="29"/>
@@ -9804,7 +9800,7 @@
       <c r="O85" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P85" s="39" t="s">
+      <c r="P85" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q85" s="29"/>
@@ -9856,7 +9852,7 @@
       <c r="O86" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="P86" s="39" t="s">
+      <c r="P86" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q86" s="29"/>
@@ -9910,7 +9906,7 @@
       <c r="O87" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P87" s="39" t="s">
+      <c r="P87" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q87" s="29"/>
@@ -9964,7 +9960,7 @@
       <c r="O88" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="P88" s="39" t="s">
+      <c r="P88" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q88" s="29"/>
@@ -10018,7 +10014,7 @@
       <c r="O89" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P89" s="39" t="s">
+      <c r="P89" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q89" s="29"/>
@@ -10072,7 +10068,7 @@
       <c r="O90" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P90" s="39" t="s">
+      <c r="P90" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q90" s="29"/>
@@ -10126,7 +10122,7 @@
       <c r="O91" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P91" s="39" t="s">
+      <c r="P91" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q91" s="29"/>
@@ -10180,7 +10176,7 @@
       <c r="O92" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P92" s="39" t="s">
+      <c r="P92" s="29" t="s">
         <v>194</v>
       </c>
       <c r="Q92" s="29"/>
@@ -10232,7 +10228,7 @@
       <c r="O93" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P93" s="40" t="s">
+      <c r="P93" s="39" t="s">
         <v>484</v>
       </c>
       <c r="Q93" s="29"/>
@@ -10284,7 +10280,7 @@
       <c r="O94" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P94" s="40" t="s">
+      <c r="P94" s="39" t="s">
         <v>490</v>
       </c>
       <c r="Q94" s="29"/>
@@ -10336,7 +10332,7 @@
       <c r="O95" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P95" s="40" t="s">
+      <c r="P95" s="39" t="s">
         <v>496</v>
       </c>
       <c r="Q95" s="29"/>
@@ -10390,7 +10386,7 @@
       <c r="O96" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P96" s="40" t="s">
+      <c r="P96" s="39" t="s">
         <v>194</v>
       </c>
       <c r="Q96" s="29"/>
@@ -10442,7 +10438,7 @@
       <c r="O97" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P97" s="40" t="s">
+      <c r="P97" s="39" t="s">
         <v>507</v>
       </c>
       <c r="Q97" s="29"/>
@@ -10496,7 +10492,7 @@
       <c r="O98" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P98" s="40" t="s">
+      <c r="P98" s="39" t="s">
         <v>194</v>
       </c>
       <c r="Q98" s="29"/>
@@ -10550,7 +10546,7 @@
       <c r="O99" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="P99" s="40" t="s">
+      <c r="P99" s="39" t="s">
         <v>194</v>
       </c>
       <c r="Q99" s="29"/>
@@ -10602,7 +10598,7 @@
       <c r="O100" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P100" s="40" t="s">
+      <c r="P100" s="39" t="s">
         <v>523</v>
       </c>
       <c r="Q100" s="29"/>
@@ -10645,7 +10641,7 @@
       </c>
       <c r="K101" s="29"/>
       <c r="L101" s="29" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="M101" s="29" t="s">
         <v>139</v>
@@ -10654,7 +10650,7 @@
       <c r="O101" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P101" s="40" t="s">
+      <c r="P101" s="39" t="s">
         <v>529</v>
       </c>
       <c r="Q101" s="29"/>
@@ -10697,7 +10693,7 @@
       </c>
       <c r="K102" s="29"/>
       <c r="L102" s="29" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="M102" s="29" t="s">
         <v>139</v>
@@ -10706,7 +10702,7 @@
       <c r="O102" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P102" s="40" t="s">
+      <c r="P102" s="39" t="s">
         <v>529</v>
       </c>
       <c r="Q102" s="29"/>
@@ -10749,7 +10745,7 @@
       </c>
       <c r="K103" s="29"/>
       <c r="L103" s="29" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="M103" s="29" t="s">
         <v>139</v>
@@ -10758,7 +10754,7 @@
       <c r="O103" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P103" s="40" t="s">
+      <c r="P103" s="39" t="s">
         <v>529</v>
       </c>
       <c r="Q103" s="29"/>
@@ -10810,7 +10806,7 @@
       <c r="O104" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P104" s="40" t="s">
+      <c r="P104" s="39" t="s">
         <v>545</v>
       </c>
       <c r="Q104" s="29"/>
@@ -10862,7 +10858,7 @@
       <c r="O105" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P105" s="40" t="s">
+      <c r="P105" s="39" t="s">
         <v>496</v>
       </c>
       <c r="Q105" s="29"/>
@@ -10932,7 +10928,7 @@
       <c r="E107" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="F107" s="41"/>
+      <c r="F107" s="40"/>
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
@@ -10970,7 +10966,7 @@
       <c r="E108" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="F108" s="41"/>
+      <c r="F108" s="40"/>
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
@@ -11008,7 +11004,7 @@
       <c r="E109" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="F109" s="41"/>
+      <c r="F109" s="40"/>
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
@@ -11366,7 +11362,7 @@
       <c r="E116" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="F116" s="41"/>
+      <c r="F116" s="40"/>
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
@@ -11482,7 +11478,7 @@
       <c r="O118" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P118" s="40" t="s">
+      <c r="P118" s="39" t="s">
         <v>606</v>
       </c>
       <c r="Q118" s="29"/>
@@ -11616,7 +11612,7 @@
       <c r="E121" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="F121" s="41"/>
+      <c r="F121" s="40"/>
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
@@ -11708,7 +11704,7 @@
       <c r="E123" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="F123" s="41"/>
+      <c r="F123" s="40"/>
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
@@ -11746,7 +11742,7 @@
       <c r="E124" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="F124" s="41"/>
+      <c r="F124" s="40"/>
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
@@ -11784,7 +11780,7 @@
       <c r="E125" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="F125" s="41"/>
+      <c r="F125" s="40"/>
       <c r="G125" s="28"/>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
@@ -11822,7 +11818,7 @@
       <c r="E126" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="F126" s="41"/>
+      <c r="F126" s="40"/>
       <c r="G126" s="28"/>
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
@@ -11860,7 +11856,7 @@
       <c r="E127" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="F127" s="41"/>
+      <c r="F127" s="40"/>
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
@@ -11924,7 +11920,7 @@
       <c r="O128" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P128" s="39" t="s">
+      <c r="P128" s="29" t="s">
         <v>640</v>
       </c>
       <c r="Q128" s="29"/>
@@ -17586,7 +17582,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="117:117 A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17619,10 +17615,10 @@
       <c r="B2" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>670</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>671</v>
       </c>
     </row>
@@ -17633,10 +17629,10 @@
       <c r="B3" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>672</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>673</v>
       </c>
     </row>
@@ -17647,10 +17643,10 @@
       <c r="B4" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>676</v>
       </c>
     </row>
@@ -17661,10 +17657,10 @@
       <c r="B5" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>678</v>
       </c>
     </row>
@@ -17675,10 +17671,10 @@
       <c r="B6" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>680</v>
       </c>
     </row>
@@ -17689,10 +17685,10 @@
       <c r="B7" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>682</v>
       </c>
     </row>
@@ -17703,10 +17699,10 @@
       <c r="B8" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>684</v>
       </c>
     </row>
@@ -17717,10 +17713,10 @@
       <c r="B9" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>686</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>687</v>
       </c>
     </row>
@@ -17731,10 +17727,10 @@
       <c r="B10" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>689</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>690</v>
       </c>
     </row>
@@ -17745,10 +17741,10 @@
       <c r="B11" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C11" s="42" t="n">
+      <c r="C11" s="41" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>692</v>
       </c>
     </row>
@@ -17759,10 +17755,10 @@
       <c r="B12" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C12" s="42" t="n">
+      <c r="C12" s="41" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>693</v>
       </c>
     </row>
@@ -17773,10 +17769,10 @@
       <c r="B13" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C13" s="42" t="n">
+      <c r="C13" s="41" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>694</v>
       </c>
     </row>
@@ -17787,10 +17783,10 @@
       <c r="B14" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C14" s="42" t="n">
+      <c r="C14" s="41" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>695</v>
       </c>
     </row>
@@ -17801,10 +17797,10 @@
       <c r="B15" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C15" s="42" t="n">
+      <c r="C15" s="41" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>696</v>
       </c>
     </row>
@@ -17815,10 +17811,10 @@
       <c r="B16" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C16" s="42" t="n">
+      <c r="C16" s="41" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>697</v>
       </c>
     </row>
@@ -17829,10 +17825,10 @@
       <c r="B17" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C17" s="42" t="n">
+      <c r="C17" s="41" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>698</v>
       </c>
     </row>
@@ -17843,10 +17839,10 @@
       <c r="B18" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C18" s="42" t="n">
+      <c r="C18" s="41" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>699</v>
       </c>
     </row>
@@ -17857,10 +17853,10 @@
       <c r="B19" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C19" s="42" t="n">
+      <c r="C19" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>701</v>
       </c>
     </row>
@@ -17871,10 +17867,10 @@
       <c r="B20" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C20" s="42" t="n">
+      <c r="C20" s="41" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>702</v>
       </c>
     </row>
@@ -17885,10 +17881,10 @@
       <c r="B21" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C21" s="42" t="n">
+      <c r="C21" s="41" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>703</v>
       </c>
     </row>
@@ -17899,10 +17895,10 @@
       <c r="B22" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C22" s="42" t="n">
+      <c r="C22" s="41" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>704</v>
       </c>
     </row>
@@ -17913,10 +17909,10 @@
       <c r="B23" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C23" s="42" t="n">
+      <c r="C23" s="41" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>705</v>
       </c>
     </row>
@@ -17927,10 +17923,10 @@
       <c r="B24" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C24" s="42" t="n">
+      <c r="C24" s="41" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>706</v>
       </c>
     </row>
@@ -17941,10 +17937,10 @@
       <c r="B25" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C25" s="42" t="n">
+      <c r="C25" s="41" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>707</v>
       </c>
     </row>
@@ -17955,10 +17951,10 @@
       <c r="B26" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C26" s="42" t="n">
+      <c r="C26" s="41" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="42" t="s">
         <v>708</v>
       </c>
     </row>
@@ -17969,10 +17965,10 @@
       <c r="B27" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C27" s="42" t="n">
+      <c r="C27" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>710</v>
       </c>
     </row>
@@ -17983,10 +17979,10 @@
       <c r="B28" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C28" s="42" t="n">
+      <c r="C28" s="41" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>711</v>
       </c>
     </row>
@@ -17997,10 +17993,10 @@
       <c r="B29" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C29" s="42" t="n">
+      <c r="C29" s="41" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>712</v>
       </c>
     </row>
@@ -18011,10 +18007,10 @@
       <c r="B30" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C30" s="42" t="n">
+      <c r="C30" s="41" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>713</v>
       </c>
     </row>
@@ -18025,10 +18021,10 @@
       <c r="B31" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C31" s="42" t="n">
+      <c r="C31" s="41" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="42" t="s">
         <v>714</v>
       </c>
     </row>
@@ -18039,10 +18035,10 @@
       <c r="B32" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C32" s="42" t="n">
+      <c r="C32" s="41" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="42" t="s">
         <v>715</v>
       </c>
     </row>
@@ -18053,10 +18049,10 @@
       <c r="B33" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C33" s="42" t="n">
+      <c r="C33" s="41" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="42" t="s">
         <v>716</v>
       </c>
     </row>
@@ -18067,10 +18063,10 @@
       <c r="B34" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C34" s="42" t="n">
+      <c r="C34" s="41" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="42" t="s">
         <v>717</v>
       </c>
     </row>
@@ -18081,10 +18077,10 @@
       <c r="B35" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C35" s="42" t="n">
+      <c r="C35" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="42" t="n">
+      <c r="D35" s="41" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18095,10 +18091,10 @@
       <c r="B36" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C36" s="42" t="n">
+      <c r="C36" s="41" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="42" t="n">
+      <c r="D36" s="41" t="n">
         <v>220</v>
       </c>
     </row>
@@ -18109,10 +18105,10 @@
       <c r="B37" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C37" s="42" t="n">
+      <c r="C37" s="41" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="43" t="n">
+      <c r="D37" s="42" t="n">
         <v>236</v>
       </c>
     </row>
@@ -18123,10 +18119,10 @@
       <c r="B38" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C38" s="42" t="n">
+      <c r="C38" s="41" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="42" t="n">
+      <c r="D38" s="41" t="n">
         <v>252</v>
       </c>
     </row>
@@ -18137,10 +18133,10 @@
       <c r="B39" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C39" s="42" t="n">
+      <c r="C39" s="41" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="43" t="n">
+      <c r="D39" s="42" t="n">
         <v>268</v>
       </c>
     </row>
@@ -18151,10 +18147,10 @@
       <c r="B40" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C40" s="42" t="n">
+      <c r="C40" s="41" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="43" t="n">
+      <c r="D40" s="42" t="n">
         <v>284</v>
       </c>
     </row>
@@ -18165,10 +18161,10 @@
       <c r="B41" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C41" s="42" t="n">
+      <c r="C41" s="41" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="43" t="n">
+      <c r="D41" s="42" t="n">
         <v>300</v>
       </c>
     </row>
@@ -18179,10 +18175,10 @@
       <c r="B42" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C42" s="42" t="n">
+      <c r="C42" s="41" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="43" t="n">
+      <c r="D42" s="42" t="n">
         <v>316</v>
       </c>
     </row>
@@ -18193,10 +18189,10 @@
       <c r="B43" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C43" s="42" t="n">
+      <c r="C43" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="42" t="n">
+      <c r="D43" s="41" t="n">
         <v>207</v>
       </c>
     </row>
@@ -18207,10 +18203,10 @@
       <c r="B44" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C44" s="42" t="n">
+      <c r="C44" s="41" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="42" t="n">
+      <c r="D44" s="41" t="n">
         <v>223</v>
       </c>
     </row>
@@ -18221,10 +18217,10 @@
       <c r="B45" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C45" s="42" t="n">
+      <c r="C45" s="41" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="43" t="n">
+      <c r="D45" s="42" t="n">
         <v>239</v>
       </c>
     </row>
@@ -18235,10 +18231,10 @@
       <c r="B46" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C46" s="42" t="n">
+      <c r="C46" s="41" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="42" t="n">
+      <c r="D46" s="41" t="n">
         <v>255</v>
       </c>
     </row>
@@ -18249,10 +18245,10 @@
       <c r="B47" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C47" s="42" t="n">
+      <c r="C47" s="41" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="43" t="n">
+      <c r="D47" s="42" t="n">
         <v>271</v>
       </c>
     </row>
@@ -18263,10 +18259,10 @@
       <c r="B48" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C48" s="42" t="n">
+      <c r="C48" s="41" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="43" t="n">
+      <c r="D48" s="42" t="n">
         <v>287</v>
       </c>
     </row>
@@ -18277,10 +18273,10 @@
       <c r="B49" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C49" s="42" t="n">
+      <c r="C49" s="41" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="43" t="n">
+      <c r="D49" s="42" t="n">
         <v>303</v>
       </c>
     </row>
@@ -18291,10 +18287,10 @@
       <c r="B50" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C50" s="42" t="n">
+      <c r="C50" s="41" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="43" t="n">
+      <c r="D50" s="42" t="n">
         <v>319</v>
       </c>
     </row>
@@ -19267,7 +19263,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="117:117 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070104000000XX/ASL4/OASIS4/V.9.9.0/report-checklist.xlsx
@@ -2124,7 +2124,8 @@
   </si>
   <si>
     <t xml:space="preserve">Il documento viene generato e archiviato, ma non inviato a FSE.
-L’errore rilevato viene successivamente analizzato per verificare se sono necessari eventali interventi di correzione e/o aggiornamento delle codifiche utilizzate dal software.</t>
+L’errore rilevato viene successivamente analizzato per verificare se sono necessari eventali interventi di correzione e/o aggiornamento delle codifiche utilizzate dal software.
+Viene predisposta una sezione del software per la verifica di questo tipo di documenti da parte dell’utente, in modo che possano essere eventualmente controllati, rigenerati e reinviati.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT26_KO</t>
@@ -2516,7 +2517,8 @@
   </si>
   <si>
     <t xml:space="preserve">Il documento viene generato e archiviato, ma non inviato a FSE.
-L’errore rilevato viene successivamente analizzato per verificare se sono necessarie eventali correzioni del software.</t>
+L’errore rilevato viene successivamente analizzato per verificare se sono necessarie eventali correzioni del software.
+Viene predisposta una sezione del software per la verifica di questo tipo di documenti da parte dell’utente, in modo che possano essere eventualmente controllati, rigenerati e reinviati.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT0</t>
@@ -3019,7 +3021,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3181,6 +3183,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5669,11 +5675,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L101" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="A82" activeCellId="0" sqref="A82"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="A101" activeCellId="0" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11920,7 +11926,7 @@
       <c r="O128" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="P128" s="29" t="s">
+      <c r="P128" s="41" t="s">
         <v>640</v>
       </c>
       <c r="Q128" s="29"/>
@@ -17615,10 +17621,10 @@
       <c r="B2" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>670</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>671</v>
       </c>
     </row>
@@ -17629,10 +17635,10 @@
       <c r="B3" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>673</v>
       </c>
     </row>
@@ -17643,10 +17649,10 @@
       <c r="B4" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>676</v>
       </c>
     </row>
@@ -17657,10 +17663,10 @@
       <c r="B5" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>678</v>
       </c>
     </row>
@@ -17671,10 +17677,10 @@
       <c r="B6" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="43" t="s">
         <v>680</v>
       </c>
     </row>
@@ -17685,10 +17691,10 @@
       <c r="B7" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>682</v>
       </c>
     </row>
@@ -17699,10 +17705,10 @@
       <c r="B8" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>683</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>684</v>
       </c>
     </row>
@@ -17713,10 +17719,10 @@
       <c r="B9" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>687</v>
       </c>
     </row>
@@ -17727,10 +17733,10 @@
       <c r="B10" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>689</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="42" t="s">
         <v>690</v>
       </c>
     </row>
@@ -17741,10 +17747,10 @@
       <c r="B11" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C11" s="41" t="n">
+      <c r="C11" s="42" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="42" t="s">
         <v>692</v>
       </c>
     </row>
@@ -17755,10 +17761,10 @@
       <c r="B12" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C12" s="41" t="n">
+      <c r="C12" s="42" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="42" t="s">
         <v>693</v>
       </c>
     </row>
@@ -17769,10 +17775,10 @@
       <c r="B13" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C13" s="41" t="n">
+      <c r="C13" s="42" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="43" t="s">
         <v>694</v>
       </c>
     </row>
@@ -17783,10 +17789,10 @@
       <c r="B14" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C14" s="41" t="n">
+      <c r="C14" s="42" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="42" t="s">
         <v>695</v>
       </c>
     </row>
@@ -17797,10 +17803,10 @@
       <c r="B15" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C15" s="41" t="n">
+      <c r="C15" s="42" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="43" t="s">
         <v>696</v>
       </c>
     </row>
@@ -17811,10 +17817,10 @@
       <c r="B16" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C16" s="41" t="n">
+      <c r="C16" s="42" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="43" t="s">
         <v>697</v>
       </c>
     </row>
@@ -17825,10 +17831,10 @@
       <c r="B17" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C17" s="41" t="n">
+      <c r="C17" s="42" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>698</v>
       </c>
     </row>
@@ -17839,10 +17845,10 @@
       <c r="B18" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C18" s="41" t="n">
+      <c r="C18" s="42" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>699</v>
       </c>
     </row>
@@ -17853,10 +17859,10 @@
       <c r="B19" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C19" s="41" t="n">
+      <c r="C19" s="42" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="42" t="s">
         <v>701</v>
       </c>
     </row>
@@ -17867,10 +17873,10 @@
       <c r="B20" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C20" s="41" t="n">
+      <c r="C20" s="42" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="42" t="s">
         <v>702</v>
       </c>
     </row>
@@ -17881,10 +17887,10 @@
       <c r="B21" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C21" s="41" t="n">
+      <c r="C21" s="42" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="43" t="s">
         <v>703</v>
       </c>
     </row>
@@ -17895,10 +17901,10 @@
       <c r="B22" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C22" s="41" t="n">
+      <c r="C22" s="42" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="42" t="s">
         <v>704</v>
       </c>
     </row>
@@ -17909,10 +17915,10 @@
       <c r="B23" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C23" s="41" t="n">
+      <c r="C23" s="42" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="43" t="s">
         <v>705</v>
       </c>
     </row>
@@ -17923,10 +17929,10 @@
       <c r="B24" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C24" s="41" t="n">
+      <c r="C24" s="42" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>706</v>
       </c>
     </row>
@@ -17937,10 +17943,10 @@
       <c r="B25" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C25" s="41" t="n">
+      <c r="C25" s="42" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="43" t="s">
         <v>707</v>
       </c>
     </row>
@@ -17951,10 +17957,10 @@
       <c r="B26" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C26" s="41" t="n">
+      <c r="C26" s="42" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>708</v>
       </c>
     </row>
@@ -17965,10 +17971,10 @@
       <c r="B27" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C27" s="41" t="n">
+      <c r="C27" s="42" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="42" t="s">
         <v>710</v>
       </c>
     </row>
@@ -17979,10 +17985,10 @@
       <c r="B28" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C28" s="41" t="n">
+      <c r="C28" s="42" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="42" t="s">
         <v>711</v>
       </c>
     </row>
@@ -17993,10 +17999,10 @@
       <c r="B29" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C29" s="41" t="n">
+      <c r="C29" s="42" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="44" t="s">
         <v>712</v>
       </c>
     </row>
@@ -18007,10 +18013,10 @@
       <c r="B30" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C30" s="41" t="n">
+      <c r="C30" s="42" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="42" t="s">
         <v>713</v>
       </c>
     </row>
@@ -18021,10 +18027,10 @@
       <c r="B31" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C31" s="41" t="n">
+      <c r="C31" s="42" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="43" t="s">
         <v>714</v>
       </c>
     </row>
@@ -18035,10 +18041,10 @@
       <c r="B32" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C32" s="41" t="n">
+      <c r="C32" s="42" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>715</v>
       </c>
     </row>
@@ -18049,10 +18055,10 @@
       <c r="B33" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C33" s="41" t="n">
+      <c r="C33" s="42" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="43" t="s">
         <v>716</v>
       </c>
     </row>
@@ -18063,10 +18069,10 @@
       <c r="B34" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C34" s="41" t="n">
+      <c r="C34" s="42" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="43" t="s">
         <v>717</v>
       </c>
     </row>
@@ -18077,10 +18083,10 @@
       <c r="B35" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C35" s="41" t="n">
+      <c r="C35" s="42" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="41" t="n">
+      <c r="D35" s="42" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18091,10 +18097,10 @@
       <c r="B36" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C36" s="41" t="n">
+      <c r="C36" s="42" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="41" t="n">
+      <c r="D36" s="42" t="n">
         <v>220</v>
       </c>
     </row>
@@ -18105,10 +18111,10 @@
       <c r="B37" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C37" s="41" t="n">
+      <c r="C37" s="42" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="42" t="n">
+      <c r="D37" s="43" t="n">
         <v>236</v>
       </c>
     </row>
@@ -18119,10 +18125,10 @@
       <c r="B38" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C38" s="41" t="n">
+      <c r="C38" s="42" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="41" t="n">
+      <c r="D38" s="42" t="n">
         <v>252</v>
       </c>
     </row>
@@ -18133,10 +18139,10 @@
       <c r="B39" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C39" s="41" t="n">
+      <c r="C39" s="42" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="42" t="n">
+      <c r="D39" s="43" t="n">
         <v>268</v>
       </c>
     </row>
@@ -18147,10 +18153,10 @@
       <c r="B40" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C40" s="41" t="n">
+      <c r="C40" s="42" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="42" t="n">
+      <c r="D40" s="43" t="n">
         <v>284</v>
       </c>
     </row>
@@ -18161,10 +18167,10 @@
       <c r="B41" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C41" s="41" t="n">
+      <c r="C41" s="42" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="42" t="n">
+      <c r="D41" s="43" t="n">
         <v>300</v>
       </c>
     </row>
@@ -18175,10 +18181,10 @@
       <c r="B42" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C42" s="41" t="n">
+      <c r="C42" s="42" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="42" t="n">
+      <c r="D42" s="43" t="n">
         <v>316</v>
       </c>
     </row>
@@ -18189,10 +18195,10 @@
       <c r="B43" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C43" s="41" t="n">
+      <c r="C43" s="42" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="41" t="n">
+      <c r="D43" s="42" t="n">
         <v>207</v>
       </c>
     </row>
@@ -18203,10 +18209,10 @@
       <c r="B44" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C44" s="41" t="n">
+      <c r="C44" s="42" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="41" t="n">
+      <c r="D44" s="42" t="n">
         <v>223</v>
       </c>
     </row>
@@ -18217,10 +18223,10 @@
       <c r="B45" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C45" s="41" t="n">
+      <c r="C45" s="42" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="42" t="n">
+      <c r="D45" s="43" t="n">
         <v>239</v>
       </c>
     </row>
@@ -18231,10 +18237,10 @@
       <c r="B46" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C46" s="41" t="n">
+      <c r="C46" s="42" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="41" t="n">
+      <c r="D46" s="42" t="n">
         <v>255</v>
       </c>
     </row>
@@ -18245,10 +18251,10 @@
       <c r="B47" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C47" s="41" t="n">
+      <c r="C47" s="42" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="42" t="n">
+      <c r="D47" s="43" t="n">
         <v>271</v>
       </c>
     </row>
@@ -18259,10 +18265,10 @@
       <c r="B48" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C48" s="41" t="n">
+      <c r="C48" s="42" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="42" t="n">
+      <c r="D48" s="43" t="n">
         <v>287</v>
       </c>
     </row>
@@ -18273,10 +18279,10 @@
       <c r="B49" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C49" s="41" t="n">
+      <c r="C49" s="42" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="42" t="n">
+      <c r="D49" s="43" t="n">
         <v>303</v>
       </c>
     </row>
@@ -18287,10 +18293,10 @@
       <c r="B50" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C50" s="41" t="n">
+      <c r="C50" s="42" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="42" t="n">
+      <c r="D50" s="43" t="n">
         <v>319</v>
       </c>
     </row>
